--- a/dmsan/newgen/scores/China/parameters.xlsx
+++ b/dmsan/newgen/scores/China/parameters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NEWgenerator A" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NEWgenerator B" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="NEWgenerator A" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NEWgenerator B" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H472"/>
+  <dimension ref="A1:H486"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>('An mbrnewgenerator-A3', 'Anmbr COD removal [%]')</t>
+          <t>('An mbrnewgenerator-A3', 'Anmbr COD removal [ratio]')</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>('An mbrnewgenerator-A3', 'Anmbr TN removal [%]')</t>
+          <t>('An mbrnewgenerator-A3', 'Anmbr TN removal [ratio]')</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>('An mbrnewgenerator-A3', 'Anmbr TP removal [%]')</t>
+          <t>('An mbrnewgenerator-A3', 'Anmbr TP removal [ratio]')</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>('Sludge pasteurization newgenerator-A4', 'Sludge dryer weight [kg]')</t>
+          <t>('An mbrnewgenerator-A3', 'Anmbr sludge yield [kg-VSS/kg-BOD removed]')</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>('Sludge pasteurization newgenerator-A4', 'Sludge barrel weight [kg]')</t>
+          <t>('An mbrnewgenerator-A3', 'Anmbr methane yield [m3-CH4/kg COD removed]')</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -1885,7 +1885,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>('Sludge pasteurization newgenerator-A4', 'Sludge dryer [USD]')</t>
+          <t>('An mbrnewgenerator-A3', 'Dissolved methane HFMC removed [nan]')</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>('Sludge pasteurization newgenerator-A4', 'Sludge barrel [USD]')</t>
+          <t>('Sludge pasteurization newgenerator-A4', 'Sludge dryer weight [kg]')</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>('Sludge pasteurization newgenerator-A4', 'Sludge labor maintenance [h]')</t>
+          <t>('Sludge pasteurization newgenerator-A4', 'Sludge barrel weight [kg]')</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -1933,7 +1933,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>('Sludge pasteurization newgenerator-A4', 'Fraction biogas lost [fraction]')</t>
+          <t>('Sludge pasteurization newgenerator-A4', 'Sludge dryer [USD]')</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>('Sludge pasteurization newgenerator-A4', 'Biogas efficiency [fraction]')</t>
+          <t>('Sludge pasteurization newgenerator-A4', 'Sludge barrel [USD]')</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>('Sludge pasteurization newgenerator-A4', 'Heat loss [fraction]')</t>
+          <t>('Sludge pasteurization newgenerator-A4', 'Sludge labor maintenance [h]')</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>('Sludge pasteurization newgenerator-A4', 'Sludge temperature [fraction]')</t>
+          <t>('Sludge pasteurization newgenerator-A4', 'Fraction biogas lost [fraction]')</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -1997,7 +1997,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-A5', 'Ion eq2 tank [USD]')</t>
+          <t>('Sludge pasteurization newgenerator-A4', 'Biogas efficiency [fraction]')</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-A5', 'Ion eq2 pump [USD]')</t>
+          <t>('Sludge pasteurization newgenerator-A4', 'Heat loss [fraction]')</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -2029,7 +2029,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-A5', 'Ion eq2 powered valve [USD]')</t>
+          <t>('Sludge pasteurization newgenerator-A4', 'Sludge temperature [fraction]')</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-A5', 'Ion eq2 fittings [USD]')</t>
+          <t>('Ion exchange newgenerator-A5', 'Ion eq2 tank [USD]')</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-A5', 'Ion zeolite tanks [USD]')</t>
+          <t>('Ion exchange newgenerator-A5', 'Ion eq2 pump [USD]')</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-A5', 'Ion filtration media [USD]')</t>
+          <t>('Ion exchange newgenerator-A5', 'Ion eq2 powered valve [USD]')</t>
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -2093,7 +2093,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-A5', 'Ion gac [USD]')</t>
+          <t>('Ion exchange newgenerator-A5', 'Ion eq2 fittings [USD]')</t>
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-A5', 'Ion zeolite [USD]')</t>
+          <t>('Ion exchange newgenerator-A5', 'Ion zeolite tanks [USD]')</t>
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-A5', 'Ion zeolite fittings [USD]')</t>
+          <t>('Ion exchange newgenerator-A5', 'Ion filtration media [USD]')</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-A5', 'Ion eq3 tank [USD]')</t>
+          <t>('Ion exchange newgenerator-A5', 'Ion gac [USD]')</t>
         </is>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-A5', 'Ion eq3 pump [USD]')</t>
+          <t>('Ion exchange newgenerator-A5', 'Ion zeolite [USD]')</t>
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -2173,7 +2173,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-A5', 'Ion eq3 filter [USD]')</t>
+          <t>('Ion exchange newgenerator-A5', 'Ion zeolite fittings [USD]')</t>
         </is>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-A5', 'Ion eq3 fittings [USD]')</t>
+          <t>('Ion exchange newgenerator-A5', 'Ion eq3 tank [USD]')</t>
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -2205,7 +2205,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-A5', 'Ion COD removal [nan]')</t>
+          <t>('Ion exchange newgenerator-A5', 'Ion eq3 pump [USD]')</t>
         </is>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-A5', 'Ion TN removal [nan]')</t>
+          <t>('Ion exchange newgenerator-A5', 'Ion eq3 filter [USD]')</t>
         </is>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -2237,7 +2237,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-A5', 'Ion TP removal [nan]')</t>
+          <t>('Ion exchange newgenerator-A5', 'Ion eq3 fittings [USD]')</t>
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-A5', 'Ion labor maintenance zeolite regeneration [hr/y]')</t>
+          <t>('Ion exchange newgenerator-A5', 'Ion COD removal [nan]')</t>
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-A5', 'Ion labor maintenance GAC replacement [hr/y]')</t>
+          <t>('Ion exchange newgenerator-A5', 'Ion TN removal [nan]')</t>
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -2285,7 +2285,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-A5', 'Ion labor replacement zeolite [hr/y]')</t>
+          <t>('Ion exchange newgenerator-A5', 'Ion TP removal [nan]')</t>
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-A5', 'Ion labor replacement misc repairs [hr/y]')</t>
+          <t>('Ion exchange newgenerator-A5', 'Ion labor maintenance zeolite regeneration [hr/y]')</t>
         </is>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -2317,7 +2317,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-A5', 'Ion labor replacement other pump [hrs/yr]')</t>
+          <t>('Ion exchange newgenerator-A5', 'Ion labor maintenance GAC replacement [hr/y]')</t>
         </is>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-A5', 'Ion backwash pump energy percycle [kWh]')</t>
+          <t>('Ion exchange newgenerator-A5', 'Ion labor replacement zeolite [hr/y]')</t>
         </is>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-A5', 'Ion batch cycle perday [# batches day-1]')</t>
+          <t>('Ion exchange newgenerator-A5', 'Ion labor replacement misc repairs [hr/y]')</t>
         </is>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-A5', 'Ion gac unit cost [USD/kg]')</t>
+          <t>('Ion exchange newgenerator-A5', 'Ion labor replacement other pump [hrs/yr]')</t>
         </is>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -2381,7 +2381,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-A5', 'Ion zeolite unit cost [USD/kg]')</t>
+          <t>('Ion exchange newgenerator-A5', 'Ion backwash pump energy percycle [kWh]')</t>
         </is>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-A5', 'Ion na cl unit cost [USD/kg]')</t>
+          <t>('Ion exchange newgenerator-A5', 'Ion batch cycle perday [# batches day-1]')</t>
         </is>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-A5', 'Ion na OH unit cost [USD/kg]')</t>
+          <t>('Ion exchange newgenerator-A5', 'Ion gac unit cost [USD/kg]')</t>
         </is>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -2429,7 +2429,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-A5', 'Ion regen freq per yr [events/yr]')</t>
+          <t>('Ion exchange newgenerator-A5', 'Ion zeolite unit cost [USD/kg]')</t>
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-A5', 'Ion regen efficiency [nan]')</t>
+          <t>('Ion exchange newgenerator-A5', 'Ion na cl unit cost [USD/kg]')</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-A5', 'Ion polycarbonate weight [kg]')</t>
+          <t>('Ion exchange newgenerator-A5', 'Ion na OH unit cost [USD/kg]')</t>
         </is>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-A5', 'Ion steel weight [kg]')</t>
+          <t>('Ion exchange newgenerator-A5', 'Ion regen freq per yr [events/yr]')</t>
         </is>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-A5', 'Ion PE weight [kg]')</t>
+          <t>('Ion exchange newgenerator-A5', 'Ion regen efficiency [nan]')</t>
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-A5', 'Ion PVC weight [kg]')</t>
+          <t>('Ion exchange newgenerator-A5', 'Ion polycarbonate weight [kg]')</t>
         </is>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -2525,7 +2525,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-A5', 'Ion plastic weight [kg]')</t>
+          <t>('Ion exchange newgenerator-A5', 'Ion steel weight [kg]')</t>
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-A5', 'Ion piping PVC weight [kg]')</t>
+          <t>('Ion exchange newgenerator-A5', 'Ion PE weight [kg]')</t>
         </is>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -2557,7 +2557,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-A5', 'Ion piping [USD]')</t>
+          <t>('Ion exchange newgenerator-A5', 'Ion PVC weight [kg]')</t>
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -2573,7 +2573,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-A5', 'Ion replacement scenario drums [USD]')</t>
+          <t>('Ion exchange newgenerator-A5', 'Ion plastic weight [kg]')</t>
         </is>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-A5', 'Ion largerncs scenario zeolite tanks [USD]')</t>
+          <t>('Ion exchange newgenerator-A5', 'Ion piping PVC weight [kg]')</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-A5', 'Ion largerncs scenario zeolite [USD]')</t>
+          <t>('Ion exchange newgenerator-A5', 'Ion piping [USD]')</t>
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -2621,7 +2621,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-A5', 'Ion zeolite fittings largerncs [USD]')</t>
+          <t>('Ion exchange newgenerator-A5', 'Ion replacement scenario drums [USD]')</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>('Chlorination newgenerator-A6', 'Chlorination recycle pump [USD]')</t>
+          <t>('Ion exchange newgenerator-A5', 'Ion largerncs scenario zeolite tanks [USD]')</t>
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -2653,7 +2653,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>('Chlorination newgenerator-A6', 'Chlorination electochlorinator [USD]')</t>
+          <t>('Ion exchange newgenerator-A5', 'Ion largerncs scenario zeolite [USD]')</t>
         </is>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>('Chlorination newgenerator-A6', 'Chlorination powered valve [USD]')</t>
+          <t>('Ion exchange newgenerator-A5', 'Ion zeolite fittings largerncs [USD]')</t>
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>('Chlorination newgenerator-A6', 'Chlorination fittings [USD]')</t>
+          <t>('Chlorination newgenerator-A6', 'Chlorination recycle pump [USD]')</t>
         </is>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -2701,7 +2701,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>('Chlorination newgenerator-A6', 'Chlorination tanks [USD]')</t>
+          <t>('Chlorination newgenerator-A6', 'Chlorination electochlorinator [USD]')</t>
         </is>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>('Chlorination newgenerator-A6', 'Chlorination COD removal [%]')</t>
+          <t>('Chlorination newgenerator-A6', 'Chlorination powered valve [USD]')</t>
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>('Chlorination newgenerator-A6', 'Chlorination TN removal [%]')</t>
+          <t>('Chlorination newgenerator-A6', 'Chlorination fittings [USD]')</t>
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>('Chlorination newgenerator-A6', 'Chlorination TP removal [%]')</t>
+          <t>('Chlorination newgenerator-A6', 'Chlorination tanks [USD]')</t>
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>('Chlorination newgenerator-A6', 'Chlorination chlorinator energy percycle [kWh]')</t>
+          <t>('Chlorination newgenerator-A6', 'Chlorination COD removal [%]')</t>
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>('Chlorination newgenerator-A6', 'Chlorination pump energy percycle [kWh]')</t>
+          <t>('Chlorination newgenerator-A6', 'Chlorination TN removal [%]')</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -2797,7 +2797,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>('Chlorination newgenerator-A6', 'Chlorination ventilation energy percycle [kWh]')</t>
+          <t>('Chlorination newgenerator-A6', 'Chlorination TP removal [%]')</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>('Chlorination newgenerator-A6', 'Chlorination valve energy percycle [kWh]')</t>
+          <t>('Chlorination newgenerator-A6', 'Chlorination chlorinator energy percycle [kWh]')</t>
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>('Chlorination newgenerator-A6', 'Chlorination product water pump energy percycle [kWh]')</t>
+          <t>('Chlorination newgenerator-A6', 'Chlorination pump energy percycle [kWh]')</t>
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>('Chlorination newgenerator-A6', 'Chlorination batch cycle per day [# batches day-1]')</t>
+          <t>('Chlorination newgenerator-A6', 'Chlorination ventilation energy percycle [kWh]')</t>
         </is>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>('Chlorination newgenerator-A6', 'Chlorination labor maintenance chlorinator recharging [hr/y]')</t>
+          <t>('Chlorination newgenerator-A6', 'Chlorination valve energy percycle [kWh]')</t>
         </is>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>('Chlorination newgenerator-A6', 'Chlorination labor replacement chlorinator replacement [hr/y]')</t>
+          <t>('Chlorination newgenerator-A6', 'Chlorination product water pump energy percycle [kWh]')</t>
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>('Chlorination newgenerator-A6', 'Chlorination labor replacement other pump [hr/y]')</t>
+          <t>('Chlorination newgenerator-A6', 'Chlorination batch cycle per day [# batches day-1]')</t>
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -2909,7 +2909,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>('Chlorination newgenerator-A6', 'Chlorination labor replacement misc repairs [hr/y]')</t>
+          <t>('Chlorination newgenerator-A6', 'Chlorination labor maintenance chlorinator recharging [hr/y]')</t>
         </is>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>('Chlorination newgenerator-A6', 'Chlorination na cl dosage [mg/L]')</t>
+          <t>('Chlorination newgenerator-A6', 'Chlorination labor replacement chlorinator replacement [hr/y]')</t>
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -2941,7 +2941,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>('Chlorination newgenerator-A6', 'Chlorination throughput flow [L/d]')</t>
+          <t>('Chlorination newgenerator-A6', 'Chlorination labor replacement other pump [hr/y]')</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -2957,7 +2957,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>('Chlorination newgenerator-A6', 'Chlorination PE weight [kg]')</t>
+          <t>('Chlorination newgenerator-A6', 'Chlorination labor replacement misc repairs [hr/y]')</t>
         </is>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -2973,7 +2973,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>('Chlorination newgenerator-A6', 'Chlorination PVC weight [kg]')</t>
+          <t>('Chlorination newgenerator-A6', 'Chlorination na cl dosage [mg/L]')</t>
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -2989,7 +2989,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>('Chlorination newgenerator-A6', 'Chlorination electronics active weight [kg]')</t>
+          <t>('Chlorination newgenerator-A6', 'Chlorination throughput flow [L/d]')</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>('Chlorination newgenerator-A6', 'Chlorination piping [USD]')</t>
+          <t>('Chlorination newgenerator-A6', 'Chlorination PE weight [kg]')</t>
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>('Chlorination newgenerator-A6', 'Chlorination piping PVC weight [kg]')</t>
+          <t>('Chlorination newgenerator-A6', 'Chlorination PVC weight [kg]')</t>
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>('Photovoltaic newgenerator-A7', 'Pv panel [USD]')</t>
+          <t>('Chlorination newgenerator-A6', 'Chlorination electronics active weight [kg]')</t>
         </is>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -3053,7 +3053,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>('Photovoltaic newgenerator-A7', 'Pv panel shipping [USD]')</t>
+          <t>('Chlorination newgenerator-A6', 'Chlorination piping [USD]')</t>
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>('Photovoltaic newgenerator-A7', 'Pv racking system [USD]')</t>
+          <t>('Chlorination newgenerator-A6', 'Chlorination piping PVC weight [kg]')</t>
         </is>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>('Photovoltaic newgenerator-A7', 'Pv charge controllers [USD]')</t>
+          <t>('Photovoltaic newgenerator-A7', 'Pv panel [USD]')</t>
         </is>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>('Photovoltaic newgenerator-A7', 'Pv connectors [USD]')</t>
+          <t>('Photovoltaic newgenerator-A7', 'Pv panel shipping [USD]')</t>
         </is>
       </c>
       <c r="C166" t="inlineStr"/>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>('Photovoltaic newgenerator-A7', 'Pv combiner box [USD]')</t>
+          <t>('Photovoltaic newgenerator-A7', 'Pv racking system [USD]')</t>
         </is>
       </c>
       <c r="C167" t="inlineStr"/>
@@ -3133,7 +3133,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>('Photovoltaic newgenerator-A7', 'Pv circuit breaker [USD]')</t>
+          <t>('Photovoltaic newgenerator-A7', 'Pv charge controllers [USD]')</t>
         </is>
       </c>
       <c r="C168" t="inlineStr"/>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>('Photovoltaic newgenerator-A7', 'Pv battery [USD]')</t>
+          <t>('Photovoltaic newgenerator-A7', 'Pv connectors [USD]')</t>
         </is>
       </c>
       <c r="C169" t="inlineStr"/>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>('Photovoltaic newgenerator-A7', 'Pv battery connectors [USD]')</t>
+          <t>('Photovoltaic newgenerator-A7', 'Pv combiner box [USD]')</t>
         </is>
       </c>
       <c r="C170" t="inlineStr"/>
@@ -3181,7 +3181,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>('Photovoltaic newgenerator-A7', 'Pv battery switch [USD]')</t>
+          <t>('Photovoltaic newgenerator-A7', 'Pv circuit breaker [USD]')</t>
         </is>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -3197,7 +3197,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>('Photovoltaic newgenerator-A7', 'Pv battery terminal [USD]')</t>
+          <t>('Photovoltaic newgenerator-A7', 'Pv battery [USD]')</t>
         </is>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>('Photovoltaic newgenerator-A7', 'Pv dc enclosure panel [USD]')</t>
+          <t>('Photovoltaic newgenerator-A7', 'Pv battery connectors [USD]')</t>
         </is>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -3229,7 +3229,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>('Photovoltaic newgenerator-A7', 'Pv dc din rail [USD]')</t>
+          <t>('Photovoltaic newgenerator-A7', 'Pv battery switch [USD]')</t>
         </is>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>('Photovoltaic newgenerator-A7', 'Pv dc din circuit breaker [USD]')</t>
+          <t>('Photovoltaic newgenerator-A7', 'Pv battery terminal [USD]')</t>
         </is>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>('Photovoltaic newgenerator-A7', 'Pv dc distribution block [USD]')</t>
+          <t>('Photovoltaic newgenerator-A7', 'Pv dc enclosure panel [USD]')</t>
         </is>
       </c>
       <c r="C176" t="inlineStr"/>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>('Photovoltaic newgenerator-A7', 'Pv dc voltage converter [USD]')</t>
+          <t>('Photovoltaic newgenerator-A7', 'Pv dc din rail [USD]')</t>
         </is>
       </c>
       <c r="C177" t="inlineStr"/>
@@ -3293,7 +3293,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>('Photovoltaic newgenerator-A7', 'Pv misc [USD]')</t>
+          <t>('Photovoltaic newgenerator-A7', 'Pv dc din circuit breaker [USD]')</t>
         </is>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>('Photovoltaic newgenerator-A7', 'Pv labor replacement batteries [hr/y]')</t>
+          <t>('Photovoltaic newgenerator-A7', 'Pv dc distribution block [USD]')</t>
         </is>
       </c>
       <c r="C179" t="inlineStr"/>
@@ -3325,7 +3325,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>('Photovoltaic newgenerator-A7', 'Pv lithium battery [USD]')</t>
+          <t>('Photovoltaic newgenerator-A7', 'Pv dc voltage converter [USD]')</t>
         </is>
       </c>
       <c r="C180" t="inlineStr"/>
@@ -3341,7 +3341,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>('Photovoltaic newgenerator-A7', 'Pv labor replacement misc repairs [hr/y]')</t>
+          <t>('Photovoltaic newgenerator-A7', 'Pv misc [USD]')</t>
         </is>
       </c>
       <c r="C181" t="inlineStr"/>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>('Photovoltaic newgenerator-A7', 'Pv photovoltaic panel area [m2]')</t>
+          <t>('Photovoltaic newgenerator-A7', 'Pv labor replacement batteries [hr/y]')</t>
         </is>
       </c>
       <c r="C182" t="inlineStr"/>
@@ -3373,7 +3373,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>('Photovoltaic newgenerator-A7', 'Pv aluminum weight [kg]')</t>
+          <t>('Photovoltaic newgenerator-A7', 'Pv lithium battery [USD]')</t>
         </is>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -3389,7 +3389,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>('Photovoltaic newgenerator-A7', 'Pv control units weight [kg]')</t>
+          <t>('Photovoltaic newgenerator-A7', 'Pv labor replacement misc repairs [hr/y]')</t>
         </is>
       </c>
       <c r="C184" t="inlineStr"/>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>('Photovoltaic newgenerator-A7', 'Pv cable length [m]')</t>
+          <t>('Photovoltaic newgenerator-A7', 'Pv photovoltaic panel area [m2]')</t>
         </is>
       </c>
       <c r="C185" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>('Photovoltaic newgenerator-A7', 'Pv connectors weight [kg]')</t>
+          <t>('Photovoltaic newgenerator-A7', 'Pv aluminum weight [kg]')</t>
         </is>
       </c>
       <c r="C186" t="inlineStr"/>
@@ -3437,7 +3437,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>('Photovoltaic newgenerator-A7', 'Pv switch weight [kg]')</t>
+          <t>('Photovoltaic newgenerator-A7', 'Pv control units weight [kg]')</t>
         </is>
       </c>
       <c r="C187" t="inlineStr"/>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>('Photovoltaic newgenerator-A7', 'Pv polycarbonate weight [kg]')</t>
+          <t>('Photovoltaic newgenerator-A7', 'Pv cable length [m]')</t>
         </is>
       </c>
       <c r="C188" t="inlineStr"/>
@@ -3469,7 +3469,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>('Photovoltaic newgenerator-A7', 'Pv electronics passive weight [kg]')</t>
+          <t>('Photovoltaic newgenerator-A7', 'Pv connectors weight [kg]')</t>
         </is>
       </c>
       <c r="C189" t="inlineStr"/>
@@ -3485,7 +3485,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-A8', 'Control box enclosure panel [USD]')</t>
+          <t>('Photovoltaic newgenerator-A7', 'Pv switch weight [kg]')</t>
         </is>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-A8', 'Control box arduino microcontroller [USD]')</t>
+          <t>('Photovoltaic newgenerator-A7', 'Pv polycarbonate weight [kg]')</t>
         </is>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-A8', 'Control box microcontroller din rails [USD]')</t>
+          <t>('Photovoltaic newgenerator-A7', 'Pv electronics passive weight [kg]')</t>
         </is>
       </c>
       <c r="C192" t="inlineStr"/>
@@ -3533,7 +3533,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-A8', 'Control box wifi [USD]')</t>
+          <t>('Controls newgenerator-A8', 'Control box enclosure panel [USD]')</t>
         </is>
       </c>
       <c r="C193" t="inlineStr"/>
@@ -3549,7 +3549,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-A8', 'Control box solid state relays [USD]')</t>
+          <t>('Controls newgenerator-A8', 'Control box arduino microcontroller [USD]')</t>
         </is>
       </c>
       <c r="C194" t="inlineStr"/>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-A8', 'Control box other relays [USD]')</t>
+          <t>('Controls newgenerator-A8', 'Control box microcontroller din rails [USD]')</t>
         </is>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-A8', 'Control box conductors [USD]')</t>
+          <t>('Controls newgenerator-A8', 'Control box wifi [USD]')</t>
         </is>
       </c>
       <c r="C196" t="inlineStr"/>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-A8', 'Control box din rails [USD]')</t>
+          <t>('Controls newgenerator-A8', 'Control box solid state relays [USD]')</t>
         </is>
       </c>
       <c r="C197" t="inlineStr"/>
@@ -3613,7 +3613,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-A8', 'Control sensors enclosure panel [USD]')</t>
+          <t>('Controls newgenerator-A8', 'Control box other relays [USD]')</t>
         </is>
       </c>
       <c r="C198" t="inlineStr"/>
@@ -3629,7 +3629,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-A8', 'Control sensors signal conditioners [USD]')</t>
+          <t>('Controls newgenerator-A8', 'Control box conductors [USD]')</t>
         </is>
       </c>
       <c r="C199" t="inlineStr"/>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-A8', 'Control sensors din rails [USD]')</t>
+          <t>('Controls newgenerator-A8', 'Control box din rails [USD]')</t>
         </is>
       </c>
       <c r="C200" t="inlineStr"/>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-A8', 'Control sensors voltage converter [USD]')</t>
+          <t>('Controls newgenerator-A8', 'Control sensors enclosure panel [USD]')</t>
         </is>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -3677,7 +3677,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-A8', 'Control orp enclosure panel [USD]')</t>
+          <t>('Controls newgenerator-A8', 'Control sensors signal conditioners [USD]')</t>
         </is>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-A8', 'Control orp voltage converter [USD]')</t>
+          <t>('Controls newgenerator-A8', 'Control sensors din rails [USD]')</t>
         </is>
       </c>
       <c r="C203" t="inlineStr"/>
@@ -3709,7 +3709,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-A8', 'Control orp controller [USD]')</t>
+          <t>('Controls newgenerator-A8', 'Control sensors voltage converter [USD]')</t>
         </is>
       </c>
       <c r="C204" t="inlineStr"/>
@@ -3725,7 +3725,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-A8', 'Control orp probe [USD]')</t>
+          <t>('Controls newgenerator-A8', 'Control orp enclosure panel [USD]')</t>
         </is>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-A8', 'Control orp cables [USD]')</t>
+          <t>('Controls newgenerator-A8', 'Control orp voltage converter [USD]')</t>
         </is>
       </c>
       <c r="C206" t="inlineStr"/>
@@ -3757,7 +3757,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-A8', 'Control pump enclosure panel [USD]')</t>
+          <t>('Controls newgenerator-A8', 'Control orp controller [USD]')</t>
         </is>
       </c>
       <c r="C207" t="inlineStr"/>
@@ -3773,7 +3773,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-A8', 'Control pump voltage converter [USD]')</t>
+          <t>('Controls newgenerator-A8', 'Control orp probe [USD]')</t>
         </is>
       </c>
       <c r="C208" t="inlineStr"/>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-A8', 'Control pump voltage rectifier [USD]')</t>
+          <t>('Controls newgenerator-A8', 'Control orp cables [USD]')</t>
         </is>
       </c>
       <c r="C209" t="inlineStr"/>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-A8', 'Control pump box relay [USD]')</t>
+          <t>('Controls newgenerator-A8', 'Control pump enclosure panel [USD]')</t>
         </is>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-A8', 'Control sensors level sensor [USD]')</t>
+          <t>('Controls newgenerator-A8', 'Control pump voltage converter [USD]')</t>
         </is>
       </c>
       <c r="C211" t="inlineStr"/>
@@ -3837,7 +3837,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-A8', 'Control sensors level switch [USD]')</t>
+          <t>('Controls newgenerator-A8', 'Control pump voltage rectifier [USD]')</t>
         </is>
       </c>
       <c r="C212" t="inlineStr"/>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-A8', 'Control sensors flow switches [USD]')</t>
+          <t>('Controls newgenerator-A8', 'Control pump box relay [USD]')</t>
         </is>
       </c>
       <c r="C213" t="inlineStr"/>
@@ -3869,7 +3869,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-A8', 'Control sensors proximity sensor [USD]')</t>
+          <t>('Controls newgenerator-A8', 'Control sensors level sensor [USD]')</t>
         </is>
       </c>
       <c r="C214" t="inlineStr"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-A8', 'Control stranded cables [USD]')</t>
+          <t>('Controls newgenerator-A8', 'Control sensors level switch [USD]')</t>
         </is>
       </c>
       <c r="C215" t="inlineStr"/>
@@ -3901,7 +3901,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-A8', 'Control sensor cables [USD]')</t>
+          <t>('Controls newgenerator-A8', 'Control sensors flow switches [USD]')</t>
         </is>
       </c>
       <c r="C216" t="inlineStr"/>
@@ -3917,7 +3917,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-A8', 'Control cable glands [USD]')</t>
+          <t>('Controls newgenerator-A8', 'Control sensors proximity sensor [USD]')</t>
         </is>
       </c>
       <c r="C217" t="inlineStr"/>
@@ -3933,7 +3933,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-A8', 'Control gauge ferrules [USD]')</t>
+          <t>('Controls newgenerator-A8', 'Control stranded cables [USD]')</t>
         </is>
       </c>
       <c r="C218" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-A8', 'Control zip ties [USD]')</t>
+          <t>('Controls newgenerator-A8', 'Control sensor cables [USD]')</t>
         </is>
       </c>
       <c r="C219" t="inlineStr"/>
@@ -3965,7 +3965,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-A8', 'Control terminal block jumper [USD]')</t>
+          <t>('Controls newgenerator-A8', 'Control cable glands [USD]')</t>
         </is>
       </c>
       <c r="C220" t="inlineStr"/>
@@ -3981,7 +3981,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-A8', 'Control system energy percycle [kW]')</t>
+          <t>('Controls newgenerator-A8', 'Control gauge ferrules [USD]')</t>
         </is>
       </c>
       <c r="C221" t="inlineStr"/>
@@ -3997,7 +3997,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-A8', 'Control system ORP energy percycle [kW]')</t>
+          <t>('Controls newgenerator-A8', 'Control zip ties [USD]')</t>
         </is>
       </c>
       <c r="C222" t="inlineStr"/>
@@ -4013,7 +4013,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-A8', 'Control background runtime energy perday [kWh]')</t>
+          <t>('Controls newgenerator-A8', 'Control terminal block jumper [USD]')</t>
         </is>
       </c>
       <c r="C223" t="inlineStr"/>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-A8', 'Control batch cycle perday [# batches day-1]')</t>
+          <t>('Controls newgenerator-A8', 'Control system energy percycle [kW]')</t>
         </is>
       </c>
       <c r="C224" t="inlineStr"/>
@@ -4045,7 +4045,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-A8', 'Control labor replacement misc repairs [hr/y]')</t>
+          <t>('Controls newgenerator-A8', 'Control system ORP energy percycle [kW]')</t>
         </is>
       </c>
       <c r="C225" t="inlineStr"/>
@@ -4061,7 +4061,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-A8', 'Control polycarbonate weight [kg]')</t>
+          <t>('Controls newgenerator-A8', 'Control background runtime energy perday [kWh]')</t>
         </is>
       </c>
       <c r="C226" t="inlineStr"/>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-A8', 'Control aluminum weight [kg]')</t>
+          <t>('Controls newgenerator-A8', 'Control batch cycle perday [# batches day-1]')</t>
         </is>
       </c>
       <c r="C227" t="inlineStr"/>
@@ -4093,7 +4093,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-A8', 'Control cable length [m]')</t>
+          <t>('Controls newgenerator-A8', 'Control labor replacement misc repairs [hr/y]')</t>
         </is>
       </c>
       <c r="C228" t="inlineStr"/>
@@ -4109,7 +4109,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-A8', 'Control electronics passive weight [kg]')</t>
+          <t>('Controls newgenerator-A8', 'Control polycarbonate weight [kg]')</t>
         </is>
       </c>
       <c r="C229" t="inlineStr"/>
@@ -4125,7 +4125,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-A8', 'Control electronics active weight [kg]')</t>
+          <t>('Controls newgenerator-A8', 'Control aluminum weight [kg]')</t>
         </is>
       </c>
       <c r="C230" t="inlineStr"/>
@@ -4141,7 +4141,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-A8', 'Control control units weight [kg]')</t>
+          <t>('Controls newgenerator-A8', 'Control cable length [m]')</t>
         </is>
       </c>
       <c r="C231" t="inlineStr"/>
@@ -4157,7 +4157,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>('Housing newgenerator-A9', 'Housing framework [USD]')</t>
+          <t>('Controls newgenerator-A8', 'Control electronics passive weight [kg]')</t>
         </is>
       </c>
       <c r="C232" t="inlineStr"/>
@@ -4173,7 +4173,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>('Housing newgenerator-A9', 'Housing framework shipping [USD]')</t>
+          <t>('Controls newgenerator-A8', 'Control electronics active weight [kg]')</t>
         </is>
       </c>
       <c r="C233" t="inlineStr"/>
@@ -4189,7 +4189,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>('Housing newgenerator-A9', 'Housing fittings [USD]')</t>
+          <t>('Controls newgenerator-A8', 'Control control units weight [kg]')</t>
         </is>
       </c>
       <c r="C234" t="inlineStr"/>
@@ -4205,7 +4205,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>('Housing newgenerator-A9', 'Housing steel weight [kg]')</t>
+          <t>('Housing newgenerator-A9', 'Housing framework [USD]')</t>
         </is>
       </c>
       <c r="C235" t="inlineStr"/>
@@ -4221,7 +4221,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>('Housing newgenerator-A9', 'Housing zinc coated steel weight [kg]')</t>
+          <t>('Housing newgenerator-A9', 'Housing framework shipping [USD]')</t>
         </is>
       </c>
       <c r="C236" t="inlineStr"/>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>('Housing newgenerator-A9', 'Housing zinc coat [m2]')</t>
+          <t>('Housing newgenerator-A9', 'Housing fittings [USD]')</t>
         </is>
       </c>
       <c r="C237" t="inlineStr"/>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>('Housing newgenerator-A9', 'Housing aluminum weight [kg]')</t>
+          <t>('Housing newgenerator-A9', 'Housing steel weight [kg]')</t>
         </is>
       </c>
       <c r="C238" t="inlineStr"/>
@@ -4269,7 +4269,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>('Housing newgenerator-A9', 'Housing PE weight [kg]')</t>
+          <t>('Housing newgenerator-A9', 'Housing zinc coated steel weight [kg]')</t>
         </is>
       </c>
       <c r="C239" t="inlineStr"/>
@@ -4285,7 +4285,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>('Housing newgenerator-A9', 'Housing largerncs framework [USD]')</t>
+          <t>('Housing newgenerator-A9', 'Housing zinc coat [m2]')</t>
         </is>
       </c>
       <c r="C240" t="inlineStr"/>
@@ -4301,7 +4301,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>('Housing newgenerator-A9', 'Cheaper housing framework [USD]')</t>
+          <t>('Housing newgenerator-A9', 'Housing aluminum weight [kg]')</t>
         </is>
       </c>
       <c r="C241" t="inlineStr"/>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>('LCA', 'CH4 CF [kg CO2-eq/kg CH4]')</t>
+          <t>('Housing newgenerator-A9', 'Housing PE weight [kg]')</t>
         </is>
       </c>
       <c r="C242" t="inlineStr"/>
@@ -4333,7 +4333,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>('LCA', 'CH4 ecosystems CF [points/kg CH4]')</t>
+          <t>('Housing newgenerator-A9', 'Housing largerncs framework [USD]')</t>
         </is>
       </c>
       <c r="C243" t="inlineStr"/>
@@ -4349,7 +4349,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>('LCA', 'CH4 health CF [points/kg CH4]')</t>
+          <t>('Housing newgenerator-A9', 'Cheaper housing framework [USD]')</t>
         </is>
       </c>
       <c r="C244" t="inlineStr"/>
@@ -4365,7 +4365,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>('LCA', 'CH4 resources CF [points/kg CH4]')</t>
+          <t>('LCA', 'CH4 CF [kg CO2-eq/kg CH4]')</t>
         </is>
       </c>
       <c r="C245" t="inlineStr"/>
@@ -4381,7 +4381,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>('LCA', 'N2O CF [kg CO2-eq/kg N2O]')</t>
+          <t>('LCA', 'CH4 ecosystems CF [points/kg CH4]')</t>
         </is>
       </c>
       <c r="C246" t="inlineStr"/>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>('LCA', 'N2O ecosystems CF [points/kg N2O]')</t>
+          <t>('LCA', 'CH4 health CF [points/kg CH4]')</t>
         </is>
       </c>
       <c r="C247" t="inlineStr"/>
@@ -4413,7 +4413,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>('LCA', 'N2O health CF [points/kg N2O]')</t>
+          <t>('LCA', 'N2O CF [kg CO2-eq/kg N2O]')</t>
         </is>
       </c>
       <c r="C248" t="inlineStr"/>
@@ -4429,7 +4429,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>('LCA', 'N2O resources CF [points/kg N2O]')</t>
+          <t>('LCA', 'N2O ecosystems CF [points/kg N2O]')</t>
         </is>
       </c>
       <c r="C249" t="inlineStr"/>
@@ -4445,7 +4445,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>('LCA', 'Conc nh3 CF [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'N2O health CF [points/kg N2O]')</t>
         </is>
       </c>
       <c r="C250" t="inlineStr"/>
@@ -4461,7 +4461,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>('LCA', 'Conc nh3 ecosystems CF [points/kg]')</t>
+          <t>('LCA', 'N fertilizer CF [kg CO2-eq/kg N]')</t>
         </is>
       </c>
       <c r="C251" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>('LCA', 'Conc nh3 health CF [points/kg]')</t>
+          <t>('LCA', 'N fertilizer ecosystems CF [points/kg N]')</t>
         </is>
       </c>
       <c r="C252" t="inlineStr"/>
@@ -4493,7 +4493,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>('LCA', 'Conc nh3 resources CF [points/kg]')</t>
+          <t>('LCA', 'N fertilizer health CF [points/kg N]')</t>
         </is>
       </c>
       <c r="C253" t="inlineStr"/>
@@ -4509,7 +4509,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>('LCA', 'GAC CF [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'N fertilizer resources CF [points/kg N]')</t>
         </is>
       </c>
       <c r="C254" t="inlineStr"/>
@@ -4525,7 +4525,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>('LCA', 'GAC ecosystems CF [points/kg]')</t>
+          <t>('LCA', 'P fertilizer CF [kg CO2-eq/kg P]')</t>
         </is>
       </c>
       <c r="C255" t="inlineStr"/>
@@ -4541,7 +4541,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>('LCA', 'GAC health CF [points/kg]')</t>
+          <t>('LCA', 'P fertilizer ecosystems CF [points/kg P]')</t>
         </is>
       </c>
       <c r="C256" t="inlineStr"/>
@@ -4557,7 +4557,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>('LCA', 'GAC resources CF [points/kg]')</t>
+          <t>('LCA', 'P fertilizer health CF [points/kg P]')</t>
         </is>
       </c>
       <c r="C257" t="inlineStr"/>
@@ -4573,7 +4573,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>('LCA', 'Zeolite CF [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'P fertilizer resources CF [points/kg P]')</t>
         </is>
       </c>
       <c r="C258" t="inlineStr"/>
@@ -4589,7 +4589,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>('LCA', 'Zeolite ecosystems CF [points/kg]')</t>
+          <t>('LCA', 'K fertilizer CF [kg CO2-eq/kg K]')</t>
         </is>
       </c>
       <c r="C259" t="inlineStr"/>
@@ -4605,7 +4605,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>('LCA', 'Zeolite health CF [points/kg]')</t>
+          <t>('LCA', 'Conc nh3 CF [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C260" t="inlineStr"/>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>('LCA', 'Zeolite resources CF [points/kg]')</t>
+          <t>('LCA', 'Conc nh3 ecosystems CF [points/kg]')</t>
         </is>
       </c>
       <c r="C261" t="inlineStr"/>
@@ -4637,7 +4637,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>('LCA', 'Na cl CF [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'Conc nh3 health CF [points/kg]')</t>
         </is>
       </c>
       <c r="C262" t="inlineStr"/>
@@ -4653,7 +4653,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>('LCA', 'Na cl ecosystems CF [points/kg]')</t>
+          <t>('LCA', 'Conc nh3 resources CF [points/kg]')</t>
         </is>
       </c>
       <c r="C263" t="inlineStr"/>
@@ -4669,7 +4669,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>('LCA', 'Na cl health CF [points/kg]')</t>
+          <t>('LCA', 'GAC CF [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C264" t="inlineStr"/>
@@ -4685,7 +4685,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>('LCA', 'Na cl resources CF [points/kg]')</t>
+          <t>('LCA', 'GAC ecosystems CF [points/kg]')</t>
         </is>
       </c>
       <c r="C265" t="inlineStr"/>
@@ -4701,7 +4701,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>('LCA', 'Na cl1 CF [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'GAC health CF [points/kg]')</t>
         </is>
       </c>
       <c r="C266" t="inlineStr"/>
@@ -4717,7 +4717,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>('LCA', 'Na cl1 ecosystems CF [points/kg]')</t>
+          <t>('LCA', 'GAC resources CF [points/kg]')</t>
         </is>
       </c>
       <c r="C267" t="inlineStr"/>
@@ -4733,7 +4733,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>('LCA', 'Na cl1 health CF [points/kg]')</t>
+          <t>('LCA', 'Zeolite CF [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C268" t="inlineStr"/>
@@ -4749,7 +4749,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>('LCA', 'Na cl1 resources CF [points/kg]')</t>
+          <t>('LCA', 'Zeolite ecosystems CF [points/kg]')</t>
         </is>
       </c>
       <c r="C269" t="inlineStr"/>
@@ -4765,7 +4765,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>('LCA', 'Na OH CF [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'Zeolite health CF [points/kg]')</t>
         </is>
       </c>
       <c r="C270" t="inlineStr"/>
@@ -4781,7 +4781,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>('LCA', 'Na OH ecosystems CF [points/kg]')</t>
+          <t>('LCA', 'Zeolite resources CF [points/kg]')</t>
         </is>
       </c>
       <c r="C271" t="inlineStr"/>
@@ -4797,7 +4797,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>('LCA', 'Na OH health CF [points/kg]')</t>
+          <t>('LCA', 'Na cl CF [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C272" t="inlineStr"/>
@@ -4813,7 +4813,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>('LCA', 'Na OH resources CF [points/kg]')</t>
+          <t>('LCA', 'Na cl ecosystems CF [points/kg]')</t>
         </is>
       </c>
       <c r="C273" t="inlineStr"/>
@@ -4829,7 +4829,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>('LCA', 'LPG CF [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'Na cl health CF [points/kg]')</t>
         </is>
       </c>
       <c r="C274" t="inlineStr"/>
@@ -4845,7 +4845,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>('LCA', 'LPG ecosystems CF [points/kg]')</t>
+          <t>('LCA', 'Na cl resources CF [points/kg]')</t>
         </is>
       </c>
       <c r="C275" t="inlineStr"/>
@@ -4861,7 +4861,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>('LCA', 'LPG health CF [points/kg]')</t>
+          <t>('LCA', 'Na cl1 CF [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C276" t="inlineStr"/>
@@ -4877,7 +4877,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>('LCA', 'LPG resources CF [points/kg]')</t>
+          <t>('LCA', 'Na cl1 ecosystems CF [points/kg]')</t>
         </is>
       </c>
       <c r="C277" t="inlineStr"/>
@@ -4893,7 +4893,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>('LCA', 'Excavation-Global warming [kg CO2-eq/m3]')</t>
+          <t>('LCA', 'Na cl1 health CF [points/kg]')</t>
         </is>
       </c>
       <c r="C278" t="inlineStr"/>
@@ -4909,7 +4909,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>('LCA', 'Brick-Global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'Na cl1 resources CF [points/kg]')</t>
         </is>
       </c>
       <c r="C279" t="inlineStr"/>
@@ -4925,7 +4925,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>('LCA', 'Cement-Global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'Na OH CF [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C280" t="inlineStr"/>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>('LCA', 'Concrete-Global warming [kg CO2-eq/m3]')</t>
+          <t>('LCA', 'Na OH ecosystems CF [points/kg]')</t>
         </is>
       </c>
       <c r="C281" t="inlineStr"/>
@@ -4957,7 +4957,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>('LCA', 'Gravel-Global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'Na OH health CF [points/kg]')</t>
         </is>
       </c>
       <c r="C282" t="inlineStr"/>
@@ -4973,7 +4973,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>('LCA', 'Plastic-Global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'Na OH resources CF [points/kg]')</t>
         </is>
       </c>
       <c r="C283" t="inlineStr"/>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>('LCA', 'Sand-Global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'LPG CF [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C284" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>('LCA', 'Stainless steel-global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'LPG ecosystems CF [points/kg]')</t>
         </is>
       </c>
       <c r="C285" t="inlineStr"/>
@@ -5021,7 +5021,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>('LCA', 'Stainless steel sheet-global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'LPG health CF [points/kg]')</t>
         </is>
       </c>
       <c r="C286" t="inlineStr"/>
@@ -5037,7 +5037,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>('LCA', 'Steel-Global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'LPG resources CF [points/kg]')</t>
         </is>
       </c>
       <c r="C287" t="inlineStr"/>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>('LCA', 'Wood-Global warming [kg CO2-eq/m3]')</t>
+          <t>('LCA', 'Excavation-Global warming [kg CO2-eq/m3]')</t>
         </is>
       </c>
       <c r="C288" t="inlineStr"/>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>('LCA', 'Trucking-Global warming [kg CO2-eq/tonne*km]')</t>
+          <t>('LCA', 'Brick-Global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C289" t="inlineStr"/>
@@ -5085,7 +5085,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>('LCA', 'Electric motor-global warming [kg CO2-eq/ea]')</t>
+          <t>('LCA', 'Cement-Global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C290" t="inlineStr"/>
@@ -5101,7 +5101,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>('LCA', 'Electronics-Global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'Concrete-Global warming [kg CO2-eq/m3]')</t>
         </is>
       </c>
       <c r="C291" t="inlineStr"/>
@@ -5117,7 +5117,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>('LCA', 'Catalytic converter-global warming [kg CO2-eq/ea]')</t>
+          <t>('LCA', 'Gravel-Global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C292" t="inlineStr"/>
@@ -5133,7 +5133,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>('LCA', 'Oil heat exchanger-global warming [kg CO2-eq/ea]')</t>
+          <t>('LCA', 'Plastic-Global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C293" t="inlineStr"/>
@@ -5149,7 +5149,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>('LCA', 'Pump-Global warming [kg CO2-eq/ea]')</t>
+          <t>('LCA', 'Sand-Global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C294" t="inlineStr"/>
@@ -5165,7 +5165,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>('LCA', 'Hydronic heat exchanger-global warming [kg CO2-eq/ea]')</t>
+          <t>('LCA', 'Stainless steel-global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C295" t="inlineStr"/>
@@ -5181,7 +5181,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>('LCA', 'Electric connectors-global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'Stainless steel sheet-global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C296" t="inlineStr"/>
@@ -5197,7 +5197,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>('LCA', 'Electric cables-global warming [kg CO2-eq/m]')</t>
+          <t>('LCA', 'Steel-Global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C297" t="inlineStr"/>
@@ -5213,7 +5213,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>('LCA', 'PVC-Global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'Wood-Global warming [kg CO2-eq/m3]')</t>
         </is>
       </c>
       <c r="C298" t="inlineStr"/>
@@ -5229,7 +5229,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>('LCA', 'PE-Global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'Trucking-Global warming [kg CO2-eq/tonne*km]')</t>
         </is>
       </c>
       <c r="C299" t="inlineStr"/>
@@ -5245,7 +5245,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>('LCA', 'Polymer-Global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'Electric motor-global warming [kg CO2-eq/ea]')</t>
         </is>
       </c>
       <c r="C300" t="inlineStr"/>
@@ -5261,7 +5261,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>('LCA', 'Cationic resin-global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'Electronics-Global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C301" t="inlineStr"/>
@@ -5277,7 +5277,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>('LCA', 'Ceramic-Global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'Catalytic converter-global warming [kg CO2-eq/ea]')</t>
         </is>
       </c>
       <c r="C302" t="inlineStr"/>
@@ -5293,7 +5293,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>('LCA', 'Fan-Global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'Oil heat exchanger-global warming [kg CO2-eq/ea]')</t>
         </is>
       </c>
       <c r="C303" t="inlineStr"/>
@@ -5309,7 +5309,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>('LCA', 'Aluminum-Global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'Pump-Global warming [kg CO2-eq/ea]')</t>
         </is>
       </c>
       <c r="C304" t="inlineStr"/>
@@ -5325,7 +5325,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>('LCA', 'LPG-Global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'Hydronic heat exchanger-global warming [kg CO2-eq/ea]')</t>
         </is>
       </c>
       <c r="C305" t="inlineStr"/>
@@ -5341,7 +5341,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>('LCA', 'Zinc coat-global warming [kg CO2-eq/m2]')</t>
+          <t>('LCA', 'Electric connectors-global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C306" t="inlineStr"/>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>('LCA', 'Polyacrylamide-Global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'Electric cables-global warming [kg CO2-eq/m]')</t>
         </is>
       </c>
       <c r="C307" t="inlineStr"/>
@@ -5373,7 +5373,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>('LCA', 'Photovoltaic panel-global warming [kg CO2-eq/m2]')</t>
+          <t>('LCA', 'PVC-Global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C308" t="inlineStr"/>
@@ -5389,7 +5389,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>('LCA', 'GACProduction-Global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'PE-Global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C309" t="inlineStr"/>
@@ -5405,7 +5405,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>('LCA', 'GACRegeneration-Global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'Polymer-Global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C310" t="inlineStr"/>
@@ -5421,7 +5421,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>('LCA', 'Switches-Global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'Cationic resin-global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C311" t="inlineStr"/>
@@ -5437,7 +5437,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>('LCA', 'Control units-global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'Ceramic-Global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C312" t="inlineStr"/>
@@ -5453,7 +5453,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>('LCA', 'Electronics active-global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'Fan-Global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C313" t="inlineStr"/>
@@ -5469,7 +5469,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>('LCA', 'Electronics passive-global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'Aluminum-Global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C314" t="inlineStr"/>
@@ -5485,7 +5485,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>('LCA', 'Transformers-Global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'LPG-Global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C315" t="inlineStr"/>
@@ -5501,7 +5501,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>('LCA', 'Fertilizer offset-global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'Zinc coat-global warming [kg CO2-eq/m2]')</t>
         </is>
       </c>
       <c r="C316" t="inlineStr"/>
@@ -5517,7 +5517,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>('LCA', 'Polycarbonate-Global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'Polyacrylamide-Global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C317" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>('LCA', 'Membrane-Global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'Photovoltaic panel-global warming [kg CO2-eq/m2]')</t>
         </is>
       </c>
       <c r="C318" t="inlineStr"/>
@@ -5549,7 +5549,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>('LCA', 'Na cl-global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'GACProduction-Global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C319" t="inlineStr"/>
@@ -5565,7 +5565,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>('LCA', 'Na oh-global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'GACRegeneration-Global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C320" t="inlineStr"/>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>('LCA', 'Zeolite-Global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'Switches-Global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C321" t="inlineStr"/>
@@ -5597,7 +5597,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>('LCA', 'Battery-Global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'Control units-global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C322" t="inlineStr"/>
@@ -5613,7 +5613,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>('LCA', 'Lithium battery-global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'Electronics active-global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C323" t="inlineStr"/>
@@ -5629,7 +5629,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>('LCA', 'Excavation-H ecosystems [points/m3]')</t>
+          <t>('LCA', 'Electronics passive-global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C324" t="inlineStr"/>
@@ -5645,7 +5645,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>('LCA', 'Brick-H ecosystems [points/kg]')</t>
+          <t>('LCA', 'Transformers-Global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C325" t="inlineStr"/>
@@ -5661,7 +5661,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>('LCA', 'Cement-H ecosystems [points/kg]')</t>
+          <t>('LCA', 'Fertilizer offset-global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C326" t="inlineStr"/>
@@ -5677,7 +5677,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>('LCA', 'Concrete-H ecosystems [points/m3]')</t>
+          <t>('LCA', 'Polycarbonate-Global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C327" t="inlineStr"/>
@@ -5693,7 +5693,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>('LCA', 'Gravel-H ecosystems [points/kg]')</t>
+          <t>('LCA', 'Membrane-Global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C328" t="inlineStr"/>
@@ -5709,7 +5709,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>('LCA', 'Plastic-H ecosystems [points/kg]')</t>
+          <t>('LCA', 'Na cl-global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C329" t="inlineStr"/>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>('LCA', 'Sand-H ecosystems [points/kg]')</t>
+          <t>('LCA', 'Na oh-global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C330" t="inlineStr"/>
@@ -5741,7 +5741,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>('LCA', 'Stainless steel-h ecosystems [points/kg]')</t>
+          <t>('LCA', 'Zeolite-Global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C331" t="inlineStr"/>
@@ -5757,7 +5757,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>('LCA', 'Stainless steel sheet-h ecosystems [points/kg]')</t>
+          <t>('LCA', 'Battery-Global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C332" t="inlineStr"/>
@@ -5773,7 +5773,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>('LCA', 'Steel-H ecosystems [points/kg]')</t>
+          <t>('LCA', 'Lithium battery-global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C333" t="inlineStr"/>
@@ -5789,7 +5789,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>('LCA', 'Wood-H ecosystems [points/m3]')</t>
+          <t>('LCA', 'Excavation-H ecosystems [points/m3]')</t>
         </is>
       </c>
       <c r="C334" t="inlineStr"/>
@@ -5805,7 +5805,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>('LCA', 'Trucking-H ecosystems [points/tonne*km]')</t>
+          <t>('LCA', 'Brick-H ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C335" t="inlineStr"/>
@@ -5821,7 +5821,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>('LCA', 'Electric motor-h ecosystems [points/ea]')</t>
+          <t>('LCA', 'Cement-H ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C336" t="inlineStr"/>
@@ -5837,7 +5837,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>('LCA', 'Electronics-H ecosystems [points/kg]')</t>
+          <t>('LCA', 'Concrete-H ecosystems [points/m3]')</t>
         </is>
       </c>
       <c r="C337" t="inlineStr"/>
@@ -5853,7 +5853,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>('LCA', 'Catalytic converter-h ecosystems [points/ea]')</t>
+          <t>('LCA', 'Gravel-H ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C338" t="inlineStr"/>
@@ -5869,7 +5869,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>('LCA', 'Oil heat exchanger-h ecosystems [points/ea]')</t>
+          <t>('LCA', 'Plastic-H ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C339" t="inlineStr"/>
@@ -5885,7 +5885,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>('LCA', 'Pump-H ecosystems [points/ea]')</t>
+          <t>('LCA', 'Sand-H ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C340" t="inlineStr"/>
@@ -5901,7 +5901,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>('LCA', 'Hydronic heat exchanger-h ecosystems [points/ea]')</t>
+          <t>('LCA', 'Stainless steel-h ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C341" t="inlineStr"/>
@@ -5917,7 +5917,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>('LCA', 'Electric connectors-h ecosystems [points/kg]')</t>
+          <t>('LCA', 'Stainless steel sheet-h ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C342" t="inlineStr"/>
@@ -5933,7 +5933,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>('LCA', 'Electric cables-h ecosystems [points/m]')</t>
+          <t>('LCA', 'Steel-H ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C343" t="inlineStr"/>
@@ -5949,7 +5949,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>('LCA', 'PVC-H ecosystems [points/kg]')</t>
+          <t>('LCA', 'Wood-H ecosystems [points/m3]')</t>
         </is>
       </c>
       <c r="C344" t="inlineStr"/>
@@ -5965,7 +5965,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>('LCA', 'PE-H ecosystems [points/kg]')</t>
+          <t>('LCA', 'Trucking-H ecosystems [points/tonne*km]')</t>
         </is>
       </c>
       <c r="C345" t="inlineStr"/>
@@ -5981,7 +5981,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>('LCA', 'Polymer-H ecosystems [points/kg]')</t>
+          <t>('LCA', 'Electric motor-h ecosystems [points/ea]')</t>
         </is>
       </c>
       <c r="C346" t="inlineStr"/>
@@ -5997,7 +5997,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>('LCA', 'Cationic resin-h ecosystems [points/kg]')</t>
+          <t>('LCA', 'Electronics-H ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C347" t="inlineStr"/>
@@ -6013,7 +6013,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>('LCA', 'Ceramic-H ecosystems [points/kg]')</t>
+          <t>('LCA', 'Catalytic converter-h ecosystems [points/ea]')</t>
         </is>
       </c>
       <c r="C348" t="inlineStr"/>
@@ -6029,7 +6029,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>('LCA', 'Fan-H ecosystems [points/kg]')</t>
+          <t>('LCA', 'Oil heat exchanger-h ecosystems [points/ea]')</t>
         </is>
       </c>
       <c r="C349" t="inlineStr"/>
@@ -6045,7 +6045,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>('LCA', 'Aluminum-H ecosystems [points/kg]')</t>
+          <t>('LCA', 'Pump-H ecosystems [points/ea]')</t>
         </is>
       </c>
       <c r="C350" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>('LCA', 'LPG-H ecosystems [points/kg]')</t>
+          <t>('LCA', 'Hydronic heat exchanger-h ecosystems [points/ea]')</t>
         </is>
       </c>
       <c r="C351" t="inlineStr"/>
@@ -6077,7 +6077,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>('LCA', 'Zinc coat-h ecosystems [points/m2]')</t>
+          <t>('LCA', 'Electric connectors-h ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C352" t="inlineStr"/>
@@ -6093,7 +6093,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>('LCA', 'Polyacrylamide-H ecosystems [points/kg]')</t>
+          <t>('LCA', 'Electric cables-h ecosystems [points/m]')</t>
         </is>
       </c>
       <c r="C353" t="inlineStr"/>
@@ -6109,7 +6109,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>('LCA', 'Photovoltaic panel-h ecosystems [points/m2]')</t>
+          <t>('LCA', 'PVC-H ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C354" t="inlineStr"/>
@@ -6125,7 +6125,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>('LCA', 'GACProduction-H ecosystems [points/kg]')</t>
+          <t>('LCA', 'PE-H ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C355" t="inlineStr"/>
@@ -6141,7 +6141,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>('LCA', 'GACRegeneration-H ecosystems [points/kg]')</t>
+          <t>('LCA', 'Polymer-H ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C356" t="inlineStr"/>
@@ -6157,7 +6157,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>('LCA', 'Switches-H ecosystems [points/kg]')</t>
+          <t>('LCA', 'Cationic resin-h ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C357" t="inlineStr"/>
@@ -6173,7 +6173,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>('LCA', 'Control units-h ecosystems [points/kg]')</t>
+          <t>('LCA', 'Ceramic-H ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C358" t="inlineStr"/>
@@ -6189,7 +6189,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>('LCA', 'Electronics active-h ecosystems [points/kg]')</t>
+          <t>('LCA', 'Fan-H ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C359" t="inlineStr"/>
@@ -6205,7 +6205,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>('LCA', 'Electronics passive-h ecosystems [points/kg]')</t>
+          <t>('LCA', 'Aluminum-H ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C360" t="inlineStr"/>
@@ -6221,7 +6221,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>('LCA', 'Transformers-H ecosystems [points/kg]')</t>
+          <t>('LCA', 'LPG-H ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C361" t="inlineStr"/>
@@ -6237,7 +6237,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>('LCA', 'Fertilizer offset-h ecosystems [points/kg]')</t>
+          <t>('LCA', 'Zinc coat-h ecosystems [points/m2]')</t>
         </is>
       </c>
       <c r="C362" t="inlineStr"/>
@@ -6253,7 +6253,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>('LCA', 'Polycarbonate-H ecosystems [points/kg]')</t>
+          <t>('LCA', 'Polyacrylamide-H ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C363" t="inlineStr"/>
@@ -6269,7 +6269,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>('LCA', 'Membrane-H ecosystems [points/kg]')</t>
+          <t>('LCA', 'Photovoltaic panel-h ecosystems [points/m2]')</t>
         </is>
       </c>
       <c r="C364" t="inlineStr"/>
@@ -6285,7 +6285,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>('LCA', 'Na cl-h ecosystems [points/kg]')</t>
+          <t>('LCA', 'GACProduction-H ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C365" t="inlineStr"/>
@@ -6301,7 +6301,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>('LCA', 'Na oh-h ecosystems [points/kg]')</t>
+          <t>('LCA', 'GACRegeneration-H ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C366" t="inlineStr"/>
@@ -6317,7 +6317,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>('LCA', 'Zeolite-H ecosystems [points/kg]')</t>
+          <t>('LCA', 'Switches-H ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C367" t="inlineStr"/>
@@ -6333,7 +6333,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>('LCA', 'Battery-H ecosystems [points/kg]')</t>
+          <t>('LCA', 'Control units-h ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C368" t="inlineStr"/>
@@ -6349,7 +6349,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>('LCA', 'Lithium battery-h ecosystems [points/kg]')</t>
+          <t>('LCA', 'Electronics active-h ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C369" t="inlineStr"/>
@@ -6365,7 +6365,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>('LCA', 'Excavation-H health [points/m3]')</t>
+          <t>('LCA', 'Electronics passive-h ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C370" t="inlineStr"/>
@@ -6381,7 +6381,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>('LCA', 'Brick-H health [points/kg]')</t>
+          <t>('LCA', 'Transformers-H ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C371" t="inlineStr"/>
@@ -6397,7 +6397,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>('LCA', 'Cement-H health [points/kg]')</t>
+          <t>('LCA', 'Fertilizer offset-h ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C372" t="inlineStr"/>
@@ -6413,7 +6413,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>('LCA', 'Concrete-H health [points/m3]')</t>
+          <t>('LCA', 'Polycarbonate-H ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C373" t="inlineStr"/>
@@ -6429,7 +6429,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>('LCA', 'Gravel-H health [points/kg]')</t>
+          <t>('LCA', 'Membrane-H ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C374" t="inlineStr"/>
@@ -6445,7 +6445,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>('LCA', 'Plastic-H health [points/kg]')</t>
+          <t>('LCA', 'Na cl-h ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C375" t="inlineStr"/>
@@ -6461,7 +6461,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>('LCA', 'Sand-H health [points/kg]')</t>
+          <t>('LCA', 'Na oh-h ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C376" t="inlineStr"/>
@@ -6477,7 +6477,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>('LCA', 'Stainless steel-h health [points/kg]')</t>
+          <t>('LCA', 'Zeolite-H ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C377" t="inlineStr"/>
@@ -6493,7 +6493,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>('LCA', 'Stainless steel sheet-h health [points/kg]')</t>
+          <t>('LCA', 'Battery-H ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C378" t="inlineStr"/>
@@ -6509,7 +6509,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>('LCA', 'Steel-H health [points/kg]')</t>
+          <t>('LCA', 'Lithium battery-h ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C379" t="inlineStr"/>
@@ -6525,7 +6525,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>('LCA', 'Wood-H health [points/m3]')</t>
+          <t>('LCA', 'Excavation-H health [points/m3]')</t>
         </is>
       </c>
       <c r="C380" t="inlineStr"/>
@@ -6541,7 +6541,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>('LCA', 'Trucking-H health [points/tonne*km]')</t>
+          <t>('LCA', 'Brick-H health [points/kg]')</t>
         </is>
       </c>
       <c r="C381" t="inlineStr"/>
@@ -6557,7 +6557,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>('LCA', 'Electric motor-h health [points/ea]')</t>
+          <t>('LCA', 'Cement-H health [points/kg]')</t>
         </is>
       </c>
       <c r="C382" t="inlineStr"/>
@@ -6573,7 +6573,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>('LCA', 'Electronics-H health [points/kg]')</t>
+          <t>('LCA', 'Concrete-H health [points/m3]')</t>
         </is>
       </c>
       <c r="C383" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>('LCA', 'Catalytic converter-h health [points/ea]')</t>
+          <t>('LCA', 'Gravel-H health [points/kg]')</t>
         </is>
       </c>
       <c r="C384" t="inlineStr"/>
@@ -6605,7 +6605,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>('LCA', 'Oil heat exchanger-h health [points/ea]')</t>
+          <t>('LCA', 'Plastic-H health [points/kg]')</t>
         </is>
       </c>
       <c r="C385" t="inlineStr"/>
@@ -6621,7 +6621,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>('LCA', 'Pump-H health [points/ea]')</t>
+          <t>('LCA', 'Sand-H health [points/kg]')</t>
         </is>
       </c>
       <c r="C386" t="inlineStr"/>
@@ -6637,7 +6637,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>('LCA', 'Hydronic heat exchanger-h health [points/ea]')</t>
+          <t>('LCA', 'Stainless steel-h health [points/kg]')</t>
         </is>
       </c>
       <c r="C387" t="inlineStr"/>
@@ -6653,7 +6653,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>('LCA', 'Electric connectors-h health [points/kg]')</t>
+          <t>('LCA', 'Stainless steel sheet-h health [points/kg]')</t>
         </is>
       </c>
       <c r="C388" t="inlineStr"/>
@@ -6669,7 +6669,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>('LCA', 'Electric cables-h health [points/m]')</t>
+          <t>('LCA', 'Steel-H health [points/kg]')</t>
         </is>
       </c>
       <c r="C389" t="inlineStr"/>
@@ -6685,7 +6685,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>('LCA', 'PVC-H health [points/kg]')</t>
+          <t>('LCA', 'Wood-H health [points/m3]')</t>
         </is>
       </c>
       <c r="C390" t="inlineStr"/>
@@ -6701,7 +6701,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>('LCA', 'PE-H health [points/kg]')</t>
+          <t>('LCA', 'Trucking-H health [points/tonne*km]')</t>
         </is>
       </c>
       <c r="C391" t="inlineStr"/>
@@ -6717,7 +6717,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>('LCA', 'Polymer-H health [points/kg]')</t>
+          <t>('LCA', 'Electric motor-h health [points/ea]')</t>
         </is>
       </c>
       <c r="C392" t="inlineStr"/>
@@ -6733,7 +6733,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>('LCA', 'Cationic resin-h health [points/kg]')</t>
+          <t>('LCA', 'Electronics-H health [points/kg]')</t>
         </is>
       </c>
       <c r="C393" t="inlineStr"/>
@@ -6749,7 +6749,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>('LCA', 'Ceramic-H health [points/kg]')</t>
+          <t>('LCA', 'Catalytic converter-h health [points/ea]')</t>
         </is>
       </c>
       <c r="C394" t="inlineStr"/>
@@ -6765,7 +6765,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>('LCA', 'Fan-H health [points/kg]')</t>
+          <t>('LCA', 'Oil heat exchanger-h health [points/ea]')</t>
         </is>
       </c>
       <c r="C395" t="inlineStr"/>
@@ -6781,7 +6781,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>('LCA', 'Aluminum-H health [points/kg]')</t>
+          <t>('LCA', 'Pump-H health [points/ea]')</t>
         </is>
       </c>
       <c r="C396" t="inlineStr"/>
@@ -6797,7 +6797,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>('LCA', 'LPG-H health [points/kg]')</t>
+          <t>('LCA', 'Hydronic heat exchanger-h health [points/ea]')</t>
         </is>
       </c>
       <c r="C397" t="inlineStr"/>
@@ -6813,7 +6813,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>('LCA', 'Zinc coat-h health [points/m2]')</t>
+          <t>('LCA', 'Electric connectors-h health [points/kg]')</t>
         </is>
       </c>
       <c r="C398" t="inlineStr"/>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>('LCA', 'Polyacrylamide-H health [points/kg]')</t>
+          <t>('LCA', 'Electric cables-h health [points/m]')</t>
         </is>
       </c>
       <c r="C399" t="inlineStr"/>
@@ -6845,7 +6845,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>('LCA', 'Photovoltaic panel-h health [points/m2]')</t>
+          <t>('LCA', 'PVC-H health [points/kg]')</t>
         </is>
       </c>
       <c r="C400" t="inlineStr"/>
@@ -6861,7 +6861,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>('LCA', 'GACProduction-H health [points/kg]')</t>
+          <t>('LCA', 'PE-H health [points/kg]')</t>
         </is>
       </c>
       <c r="C401" t="inlineStr"/>
@@ -6877,7 +6877,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>('LCA', 'GACRegeneration-H health [points/kg]')</t>
+          <t>('LCA', 'Polymer-H health [points/kg]')</t>
         </is>
       </c>
       <c r="C402" t="inlineStr"/>
@@ -6893,7 +6893,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>('LCA', 'Switches-H health [points/kg]')</t>
+          <t>('LCA', 'Cationic resin-h health [points/kg]')</t>
         </is>
       </c>
       <c r="C403" t="inlineStr"/>
@@ -6909,7 +6909,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>('LCA', 'Control units-h health [points/kg]')</t>
+          <t>('LCA', 'Ceramic-H health [points/kg]')</t>
         </is>
       </c>
       <c r="C404" t="inlineStr"/>
@@ -6925,7 +6925,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>('LCA', 'Electronics active-h health [points/kg]')</t>
+          <t>('LCA', 'Fan-H health [points/kg]')</t>
         </is>
       </c>
       <c r="C405" t="inlineStr"/>
@@ -6941,7 +6941,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>('LCA', 'Electronics passive-h health [points/kg]')</t>
+          <t>('LCA', 'Aluminum-H health [points/kg]')</t>
         </is>
       </c>
       <c r="C406" t="inlineStr"/>
@@ -6957,7 +6957,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>('LCA', 'Transformers-H health [points/kg]')</t>
+          <t>('LCA', 'LPG-H health [points/kg]')</t>
         </is>
       </c>
       <c r="C407" t="inlineStr"/>
@@ -6973,7 +6973,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>('LCA', 'Fertilizer offset-h health [points/kg]')</t>
+          <t>('LCA', 'Zinc coat-h health [points/m2]')</t>
         </is>
       </c>
       <c r="C408" t="inlineStr"/>
@@ -6989,7 +6989,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>('LCA', 'Polycarbonate-H health [points/kg]')</t>
+          <t>('LCA', 'Polyacrylamide-H health [points/kg]')</t>
         </is>
       </c>
       <c r="C409" t="inlineStr"/>
@@ -7005,7 +7005,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>('LCA', 'Membrane-H health [points/kg]')</t>
+          <t>('LCA', 'Photovoltaic panel-h health [points/m2]')</t>
         </is>
       </c>
       <c r="C410" t="inlineStr"/>
@@ -7021,7 +7021,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>('LCA', 'Na cl-h health [points/kg]')</t>
+          <t>('LCA', 'GACProduction-H health [points/kg]')</t>
         </is>
       </c>
       <c r="C411" t="inlineStr"/>
@@ -7037,7 +7037,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>('LCA', 'Na oh-h health [points/kg]')</t>
+          <t>('LCA', 'GACRegeneration-H health [points/kg]')</t>
         </is>
       </c>
       <c r="C412" t="inlineStr"/>
@@ -7053,7 +7053,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>('LCA', 'Zeolite-H health [points/kg]')</t>
+          <t>('LCA', 'Switches-H health [points/kg]')</t>
         </is>
       </c>
       <c r="C413" t="inlineStr"/>
@@ -7069,7 +7069,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>('LCA', 'Battery-H health [points/kg]')</t>
+          <t>('LCA', 'Control units-h health [points/kg]')</t>
         </is>
       </c>
       <c r="C414" t="inlineStr"/>
@@ -7085,7 +7085,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>('LCA', 'Lithium battery-h health [points/kg]')</t>
+          <t>('LCA', 'Electronics active-h health [points/kg]')</t>
         </is>
       </c>
       <c r="C415" t="inlineStr"/>
@@ -7101,7 +7101,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>('LCA', 'Excavation-H resources [points/m3]')</t>
+          <t>('LCA', 'Electronics passive-h health [points/kg]')</t>
         </is>
       </c>
       <c r="C416" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>('LCA', 'Brick-H resources [points/kg]')</t>
+          <t>('LCA', 'Transformers-H health [points/kg]')</t>
         </is>
       </c>
       <c r="C417" t="inlineStr"/>
@@ -7133,7 +7133,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>('LCA', 'Cement-H resources [points/kg]')</t>
+          <t>('LCA', 'Fertilizer offset-h health [points/kg]')</t>
         </is>
       </c>
       <c r="C418" t="inlineStr"/>
@@ -7149,7 +7149,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>('LCA', 'Concrete-H resources [points/m3]')</t>
+          <t>('LCA', 'Polycarbonate-H health [points/kg]')</t>
         </is>
       </c>
       <c r="C419" t="inlineStr"/>
@@ -7165,7 +7165,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>('LCA', 'Gravel-H resources [points/kg]')</t>
+          <t>('LCA', 'Membrane-H health [points/kg]')</t>
         </is>
       </c>
       <c r="C420" t="inlineStr"/>
@@ -7181,7 +7181,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>('LCA', 'Plastic-H resources [points/kg]')</t>
+          <t>('LCA', 'Na cl-h health [points/kg]')</t>
         </is>
       </c>
       <c r="C421" t="inlineStr"/>
@@ -7197,7 +7197,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>('LCA', 'Sand-H resources [points/kg]')</t>
+          <t>('LCA', 'Na oh-h health [points/kg]')</t>
         </is>
       </c>
       <c r="C422" t="inlineStr"/>
@@ -7213,7 +7213,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>('LCA', 'Stainless steel-h resources [points/kg]')</t>
+          <t>('LCA', 'Zeolite-H health [points/kg]')</t>
         </is>
       </c>
       <c r="C423" t="inlineStr"/>
@@ -7229,7 +7229,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>('LCA', 'Stainless steel sheet-h resources [points/kg]')</t>
+          <t>('LCA', 'Battery-H health [points/kg]')</t>
         </is>
       </c>
       <c r="C424" t="inlineStr"/>
@@ -7245,7 +7245,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>('LCA', 'Steel-H resources [points/kg]')</t>
+          <t>('LCA', 'Lithium battery-h health [points/kg]')</t>
         </is>
       </c>
       <c r="C425" t="inlineStr"/>
@@ -7261,7 +7261,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>('LCA', 'Wood-H resources [points/m3]')</t>
+          <t>('LCA', 'Excavation-H resources [points/m3]')</t>
         </is>
       </c>
       <c r="C426" t="inlineStr"/>
@@ -7277,7 +7277,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>('LCA', 'Trucking-H resources [points/tonne*km]')</t>
+          <t>('LCA', 'Brick-H resources [points/kg]')</t>
         </is>
       </c>
       <c r="C427" t="inlineStr"/>
@@ -7293,7 +7293,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>('LCA', 'Electric motor-h resources [points/ea]')</t>
+          <t>('LCA', 'Cement-H resources [points/kg]')</t>
         </is>
       </c>
       <c r="C428" t="inlineStr"/>
@@ -7309,7 +7309,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>('LCA', 'Electronics-H resources [points/kg]')</t>
+          <t>('LCA', 'Concrete-H resources [points/m3]')</t>
         </is>
       </c>
       <c r="C429" t="inlineStr"/>
@@ -7325,7 +7325,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>('LCA', 'Catalytic converter-h resources [points/ea]')</t>
+          <t>('LCA', 'Gravel-H resources [points/kg]')</t>
         </is>
       </c>
       <c r="C430" t="inlineStr"/>
@@ -7341,7 +7341,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>('LCA', 'Oil heat exchanger-h resources [points/ea]')</t>
+          <t>('LCA', 'Plastic-H resources [points/kg]')</t>
         </is>
       </c>
       <c r="C431" t="inlineStr"/>
@@ -7357,7 +7357,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>('LCA', 'Pump-H resources [points/ea]')</t>
+          <t>('LCA', 'Sand-H resources [points/kg]')</t>
         </is>
       </c>
       <c r="C432" t="inlineStr"/>
@@ -7373,7 +7373,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>('LCA', 'Hydronic heat exchanger-h resources [points/ea]')</t>
+          <t>('LCA', 'Stainless steel-h resources [points/kg]')</t>
         </is>
       </c>
       <c r="C433" t="inlineStr"/>
@@ -7389,7 +7389,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>('LCA', 'Electric connectors-h resources [points/kg]')</t>
+          <t>('LCA', 'Stainless steel sheet-h resources [points/kg]')</t>
         </is>
       </c>
       <c r="C434" t="inlineStr"/>
@@ -7405,7 +7405,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>('LCA', 'Electric cables-h resources [points/m]')</t>
+          <t>('LCA', 'Steel-H resources [points/kg]')</t>
         </is>
       </c>
       <c r="C435" t="inlineStr"/>
@@ -7421,7 +7421,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>('LCA', 'PVC-H resources [points/kg]')</t>
+          <t>('LCA', 'Wood-H resources [points/m3]')</t>
         </is>
       </c>
       <c r="C436" t="inlineStr"/>
@@ -7437,7 +7437,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>('LCA', 'PE-H resources [points/kg]')</t>
+          <t>('LCA', 'Trucking-H resources [points/tonne*km]')</t>
         </is>
       </c>
       <c r="C437" t="inlineStr"/>
@@ -7453,7 +7453,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>('LCA', 'Polymer-H resources [points/kg]')</t>
+          <t>('LCA', 'Electric motor-h resources [points/ea]')</t>
         </is>
       </c>
       <c r="C438" t="inlineStr"/>
@@ -7469,7 +7469,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>('LCA', 'Cationic resin-h resources [points/kg]')</t>
+          <t>('LCA', 'Electronics-H resources [points/kg]')</t>
         </is>
       </c>
       <c r="C439" t="inlineStr"/>
@@ -7485,7 +7485,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>('LCA', 'Ceramic-H resources [points/kg]')</t>
+          <t>('LCA', 'Catalytic converter-h resources [points/ea]')</t>
         </is>
       </c>
       <c r="C440" t="inlineStr"/>
@@ -7501,7 +7501,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>('LCA', 'Fan-H resources [points/kg]')</t>
+          <t>('LCA', 'Oil heat exchanger-h resources [points/ea]')</t>
         </is>
       </c>
       <c r="C441" t="inlineStr"/>
@@ -7517,7 +7517,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>('LCA', 'Aluminum-H resources [points/kg]')</t>
+          <t>('LCA', 'Pump-H resources [points/ea]')</t>
         </is>
       </c>
       <c r="C442" t="inlineStr"/>
@@ -7533,7 +7533,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>('LCA', 'LPG-H resources [points/kg]')</t>
+          <t>('LCA', 'Hydronic heat exchanger-h resources [points/ea]')</t>
         </is>
       </c>
       <c r="C443" t="inlineStr"/>
@@ -7549,7 +7549,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>('LCA', 'Zinc coat-h resources [points/m2]')</t>
+          <t>('LCA', 'Electric connectors-h resources [points/kg]')</t>
         </is>
       </c>
       <c r="C444" t="inlineStr"/>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>('LCA', 'Polyacrylamide-H resources [points/kg]')</t>
+          <t>('LCA', 'Electric cables-h resources [points/m]')</t>
         </is>
       </c>
       <c r="C445" t="inlineStr"/>
@@ -7581,7 +7581,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>('LCA', 'Photovoltaic panel-h resources [points/m2]')</t>
+          <t>('LCA', 'PVC-H resources [points/kg]')</t>
         </is>
       </c>
       <c r="C446" t="inlineStr"/>
@@ -7597,7 +7597,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>('LCA', 'GACProduction-H resources [points/kg]')</t>
+          <t>('LCA', 'PE-H resources [points/kg]')</t>
         </is>
       </c>
       <c r="C447" t="inlineStr"/>
@@ -7613,7 +7613,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>('LCA', 'GACRegeneration-H resources [points/kg]')</t>
+          <t>('LCA', 'Polymer-H resources [points/kg]')</t>
         </is>
       </c>
       <c r="C448" t="inlineStr"/>
@@ -7629,7 +7629,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>('LCA', 'Switches-H resources [points/kg]')</t>
+          <t>('LCA', 'Cationic resin-h resources [points/kg]')</t>
         </is>
       </c>
       <c r="C449" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>('LCA', 'Control units-h resources [points/kg]')</t>
+          <t>('LCA', 'Ceramic-H resources [points/kg]')</t>
         </is>
       </c>
       <c r="C450" t="inlineStr"/>
@@ -7661,7 +7661,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>('LCA', 'Electronics active-h resources [points/kg]')</t>
+          <t>('LCA', 'Fan-H resources [points/kg]')</t>
         </is>
       </c>
       <c r="C451" t="inlineStr"/>
@@ -7677,7 +7677,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>('LCA', 'Electronics passive-h resources [points/kg]')</t>
+          <t>('LCA', 'Aluminum-H resources [points/kg]')</t>
         </is>
       </c>
       <c r="C452" t="inlineStr"/>
@@ -7693,7 +7693,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>('LCA', 'Transformers-H resources [points/kg]')</t>
+          <t>('LCA', 'LPG-H resources [points/kg]')</t>
         </is>
       </c>
       <c r="C453" t="inlineStr"/>
@@ -7709,7 +7709,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>('LCA', 'Fertilizer offset-h resources [points/kg]')</t>
+          <t>('LCA', 'Zinc coat-h resources [points/m2]')</t>
         </is>
       </c>
       <c r="C454" t="inlineStr"/>
@@ -7725,7 +7725,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>('LCA', 'Polycarbonate-H resources [points/kg]')</t>
+          <t>('LCA', 'Polyacrylamide-H resources [points/kg]')</t>
         </is>
       </c>
       <c r="C455" t="inlineStr"/>
@@ -7741,7 +7741,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>('LCA', 'Membrane-H resources [points/kg]')</t>
+          <t>('LCA', 'Photovoltaic panel-h resources [points/m2]')</t>
         </is>
       </c>
       <c r="C456" t="inlineStr"/>
@@ -7757,7 +7757,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>('LCA', 'Na cl-h resources [points/kg]')</t>
+          <t>('LCA', 'GACProduction-H resources [points/kg]')</t>
         </is>
       </c>
       <c r="C457" t="inlineStr"/>
@@ -7773,7 +7773,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>('LCA', 'Na oh-h resources [points/kg]')</t>
+          <t>('LCA', 'GACRegeneration-H resources [points/kg]')</t>
         </is>
       </c>
       <c r="C458" t="inlineStr"/>
@@ -7789,7 +7789,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>('LCA', 'Zeolite-H resources [points/kg]')</t>
+          <t>('LCA', 'Switches-H resources [points/kg]')</t>
         </is>
       </c>
       <c r="C459" t="inlineStr"/>
@@ -7805,7 +7805,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>('LCA', 'Battery-H resources [points/kg]')</t>
+          <t>('LCA', 'Control units-h resources [points/kg]')</t>
         </is>
       </c>
       <c r="C460" t="inlineStr"/>
@@ -7821,7 +7821,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>('LCA', 'Lithium battery-h resources [points/kg]')</t>
+          <t>('LCA', 'Electronics active-h resources [points/kg]')</t>
         </is>
       </c>
       <c r="C461" t="inlineStr"/>
@@ -7837,7 +7837,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>('LCA', 'Electricity CF [kg CO2-eq/kWh]')</t>
+          <t>('LCA', 'Electronics passive-h resources [points/kg]')</t>
         </is>
       </c>
       <c r="C462" t="inlineStr"/>
@@ -7853,7 +7853,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>('LCA', 'Electricity ecosystems CF [points/kWh]')</t>
+          <t>('LCA', 'Transformers-H resources [points/kg]')</t>
         </is>
       </c>
       <c r="C463" t="inlineStr"/>
@@ -7869,7 +7869,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>('LCA', 'Electricity health CF [points/kWh]')</t>
+          <t>('LCA', 'Fertilizer offset-h resources [points/kg]')</t>
         </is>
       </c>
       <c r="C464" t="inlineStr"/>
@@ -7885,7 +7885,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>('LCA', 'Electricity resources CF [points/kWh]')</t>
+          <t>('LCA', 'Polycarbonate-H resources [points/kg]')</t>
         </is>
       </c>
       <c r="C465" t="inlineStr"/>
@@ -7901,7 +7901,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>('TEA', 'Zeolite price [USD/kg]')</t>
+          <t>('LCA', 'Membrane-H resources [points/kg]')</t>
         </is>
       </c>
       <c r="C466" t="inlineStr"/>
@@ -7917,7 +7917,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>('TEA', 'GAC price [USD/kg]')</t>
+          <t>('LCA', 'Na cl-h resources [points/kg]')</t>
         </is>
       </c>
       <c r="C467" t="inlineStr"/>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>('TEA', 'Na OH price [USD/kg]')</t>
+          <t>('LCA', 'Na oh-h resources [points/kg]')</t>
         </is>
       </c>
       <c r="C468" t="inlineStr"/>
@@ -7949,7 +7949,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>('TEA', 'Na cl price [USD/kg]')</t>
+          <t>('LCA', 'Zeolite-H resources [points/kg]')</t>
         </is>
       </c>
       <c r="C469" t="inlineStr"/>
@@ -7965,7 +7965,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>('TEA', 'Na cl1 price [USD/kg]')</t>
+          <t>('LCA', 'Battery-H resources [points/kg]')</t>
         </is>
       </c>
       <c r="C470" t="inlineStr"/>
@@ -7981,7 +7981,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>('TEA', 'LPG price [USD/kg]')</t>
+          <t>('LCA', 'Lithium battery-h resources [points/kg]')</t>
         </is>
       </c>
       <c r="C471" t="inlineStr"/>
@@ -7997,7 +7997,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>('TEA', 'Conc nh3 price [USD/kg NH3]')</t>
+          <t>('LCA', 'Electricity CF [kg CO2-eq/kWh]')</t>
         </is>
       </c>
       <c r="C472" t="inlineStr"/>
@@ -8006,6 +8006,230 @@
       <c r="F472" t="inlineStr"/>
       <c r="G472" t="inlineStr"/>
       <c r="H472" t="inlineStr"/>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="n">
+        <v>471</v>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>('LCA', 'Electricity ecosystems CF [points/kWh]')</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr"/>
+      <c r="D473" t="inlineStr"/>
+      <c r="E473" t="inlineStr"/>
+      <c r="F473" t="inlineStr"/>
+      <c r="G473" t="inlineStr"/>
+      <c r="H473" t="inlineStr"/>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="n">
+        <v>472</v>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>('LCA', 'Electricity health CF [points/kWh]')</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr"/>
+      <c r="D474" t="inlineStr"/>
+      <c r="E474" t="inlineStr"/>
+      <c r="F474" t="inlineStr"/>
+      <c r="G474" t="inlineStr"/>
+      <c r="H474" t="inlineStr"/>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="n">
+        <v>473</v>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>('LCA', 'Electricity resources CF [points/kWh]')</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr"/>
+      <c r="D475" t="inlineStr"/>
+      <c r="E475" t="inlineStr"/>
+      <c r="F475" t="inlineStr"/>
+      <c r="G475" t="inlineStr"/>
+      <c r="H475" t="inlineStr"/>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="n">
+        <v>474</v>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>('TEA', 'Price factor [-]')</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr"/>
+      <c r="D476" t="inlineStr"/>
+      <c r="E476" t="inlineStr"/>
+      <c r="F476" t="inlineStr"/>
+      <c r="G476" t="inlineStr"/>
+      <c r="H476" t="inlineStr"/>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="n">
+        <v>475</v>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>('TEA', 'Zeolite price [USD/kg]')</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr"/>
+      <c r="D477" t="inlineStr"/>
+      <c r="E477" t="inlineStr"/>
+      <c r="F477" t="inlineStr"/>
+      <c r="G477" t="inlineStr"/>
+      <c r="H477" t="inlineStr"/>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="n">
+        <v>476</v>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>('TEA', 'GAC price [USD/kg]')</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr"/>
+      <c r="D478" t="inlineStr"/>
+      <c r="E478" t="inlineStr"/>
+      <c r="F478" t="inlineStr"/>
+      <c r="G478" t="inlineStr"/>
+      <c r="H478" t="inlineStr"/>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="n">
+        <v>477</v>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>('TEA', 'Na OH price [USD/kg]')</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr"/>
+      <c r="D479" t="inlineStr"/>
+      <c r="E479" t="inlineStr"/>
+      <c r="F479" t="inlineStr"/>
+      <c r="G479" t="inlineStr"/>
+      <c r="H479" t="inlineStr"/>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="n">
+        <v>478</v>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>('TEA', 'Na cl price [USD/kg]')</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr"/>
+      <c r="D480" t="inlineStr"/>
+      <c r="E480" t="inlineStr"/>
+      <c r="F480" t="inlineStr"/>
+      <c r="G480" t="inlineStr"/>
+      <c r="H480" t="inlineStr"/>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="n">
+        <v>479</v>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>('TEA', 'Na cl1 price [USD/kg]')</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr"/>
+      <c r="D481" t="inlineStr"/>
+      <c r="E481" t="inlineStr"/>
+      <c r="F481" t="inlineStr"/>
+      <c r="G481" t="inlineStr"/>
+      <c r="H481" t="inlineStr"/>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>('TEA', 'LPG price [USD/kg]')</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr"/>
+      <c r="D482" t="inlineStr"/>
+      <c r="E482" t="inlineStr"/>
+      <c r="F482" t="inlineStr"/>
+      <c r="G482" t="inlineStr"/>
+      <c r="H482" t="inlineStr"/>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>('TEA', 'N fertilizer price [USD/kg N]')</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr"/>
+      <c r="D483" t="inlineStr"/>
+      <c r="E483" t="inlineStr"/>
+      <c r="F483" t="inlineStr"/>
+      <c r="G483" t="inlineStr"/>
+      <c r="H483" t="inlineStr"/>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="n">
+        <v>482</v>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>('TEA', 'P fertilizer price [USD/kg P]')</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr"/>
+      <c r="D484" t="inlineStr"/>
+      <c r="E484" t="inlineStr"/>
+      <c r="F484" t="inlineStr"/>
+      <c r="G484" t="inlineStr"/>
+      <c r="H484" t="inlineStr"/>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="n">
+        <v>483</v>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>('TEA', 'K fertilizer price [USD/kg K]')</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr"/>
+      <c r="D485" t="inlineStr"/>
+      <c r="E485" t="inlineStr"/>
+      <c r="F485" t="inlineStr"/>
+      <c r="G485" t="inlineStr"/>
+      <c r="H485" t="inlineStr"/>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="n">
+        <v>484</v>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>('TEA', 'NH3 fertilizer price [USD/kg N]')</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr"/>
+      <c r="D486" t="inlineStr"/>
+      <c r="E486" t="inlineStr"/>
+      <c r="F486" t="inlineStr"/>
+      <c r="G486" t="inlineStr"/>
+      <c r="H486" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8018,7 +8242,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H452"/>
+  <dimension ref="A1:H466"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9077,7 +9301,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>('An mbrnewgenerator-B3', 'Anmbr COD removal [%]')</t>
+          <t>('An mbrnewgenerator-B3', 'Anmbr COD removal [ratio]')</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -9093,7 +9317,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>('An mbrnewgenerator-B3', 'Anmbr TN removal [%]')</t>
+          <t>('An mbrnewgenerator-B3', 'Anmbr TN removal [ratio]')</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -9109,7 +9333,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>('An mbrnewgenerator-B3', 'Anmbr TP removal [%]')</t>
+          <t>('An mbrnewgenerator-B3', 'Anmbr TP removal [ratio]')</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -9445,7 +9669,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>('Sludge pasteurization newgenerator-B4', 'Sludge dryer weight [kg]')</t>
+          <t>('An mbrnewgenerator-B3', 'Anmbr sludge yield [kg-VSS/kg-BOD removed]')</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -9461,7 +9685,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>('Sludge pasteurization newgenerator-B4', 'Sludge barrel weight [kg]')</t>
+          <t>('An mbrnewgenerator-B3', 'Anmbr methane yield [m3-CH4/kg COD removed]')</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -9477,7 +9701,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>('Sludge pasteurization newgenerator-B4', 'Sludge dryer [USD]')</t>
+          <t>('An mbrnewgenerator-B3', 'Dissolved methane HFMC removed [nan]')</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -9493,7 +9717,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>('Sludge pasteurization newgenerator-B4', 'Sludge barrel [USD]')</t>
+          <t>('Sludge pasteurization newgenerator-B4', 'Sludge dryer weight [kg]')</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -9509,7 +9733,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>('Sludge pasteurization newgenerator-B4', 'Sludge labor maintenance [h]')</t>
+          <t>('Sludge pasteurization newgenerator-B4', 'Sludge barrel weight [kg]')</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -9525,7 +9749,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>('Sludge pasteurization newgenerator-B4', 'Fraction biogas lost [fraction]')</t>
+          <t>('Sludge pasteurization newgenerator-B4', 'Sludge dryer [USD]')</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -9541,7 +9765,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>('Sludge pasteurization newgenerator-B4', 'Biogas efficiency [fraction]')</t>
+          <t>('Sludge pasteurization newgenerator-B4', 'Sludge barrel [USD]')</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -9557,7 +9781,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>('Sludge pasteurization newgenerator-B4', 'Heat loss [fraction]')</t>
+          <t>('Sludge pasteurization newgenerator-B4', 'Sludge labor maintenance [h]')</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -9573,7 +9797,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>('Sludge pasteurization newgenerator-B4', 'Sludge temperature [fraction]')</t>
+          <t>('Sludge pasteurization newgenerator-B4', 'Fraction biogas lost [fraction]')</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -9589,7 +9813,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-B5', 'Ion eq2 tank [USD]')</t>
+          <t>('Sludge pasteurization newgenerator-B4', 'Biogas efficiency [fraction]')</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -9605,7 +9829,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-B5', 'Ion eq2 pump [USD]')</t>
+          <t>('Sludge pasteurization newgenerator-B4', 'Heat loss [fraction]')</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -9621,7 +9845,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-B5', 'Ion eq2 powered valve [USD]')</t>
+          <t>('Sludge pasteurization newgenerator-B4', 'Sludge temperature [fraction]')</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -9637,7 +9861,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-B5', 'Ion eq2 fittings [USD]')</t>
+          <t>('Ion exchange newgenerator-B5', 'Ion eq2 tank [USD]')</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -9653,7 +9877,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-B5', 'Ion zeolite tanks [USD]')</t>
+          <t>('Ion exchange newgenerator-B5', 'Ion eq2 pump [USD]')</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -9669,7 +9893,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-B5', 'Ion filtration media [USD]')</t>
+          <t>('Ion exchange newgenerator-B5', 'Ion eq2 powered valve [USD]')</t>
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -9685,7 +9909,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-B5', 'Ion gac [USD]')</t>
+          <t>('Ion exchange newgenerator-B5', 'Ion eq2 fittings [USD]')</t>
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -9701,7 +9925,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-B5', 'Ion zeolite [USD]')</t>
+          <t>('Ion exchange newgenerator-B5', 'Ion zeolite tanks [USD]')</t>
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -9717,7 +9941,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-B5', 'Ion zeolite fittings [USD]')</t>
+          <t>('Ion exchange newgenerator-B5', 'Ion filtration media [USD]')</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -9733,7 +9957,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-B5', 'Ion eq3 tank [USD]')</t>
+          <t>('Ion exchange newgenerator-B5', 'Ion gac [USD]')</t>
         </is>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -9749,7 +9973,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-B5', 'Ion eq3 pump [USD]')</t>
+          <t>('Ion exchange newgenerator-B5', 'Ion zeolite [USD]')</t>
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -9765,7 +9989,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-B5', 'Ion eq3 filter [USD]')</t>
+          <t>('Ion exchange newgenerator-B5', 'Ion zeolite fittings [USD]')</t>
         </is>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -9781,7 +10005,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-B5', 'Ion eq3 fittings [USD]')</t>
+          <t>('Ion exchange newgenerator-B5', 'Ion eq3 tank [USD]')</t>
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -9797,7 +10021,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-B5', 'Ion COD removal [nan]')</t>
+          <t>('Ion exchange newgenerator-B5', 'Ion eq3 pump [USD]')</t>
         </is>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -9813,7 +10037,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-B5', 'Ion TN removal [nan]')</t>
+          <t>('Ion exchange newgenerator-B5', 'Ion eq3 filter [USD]')</t>
         </is>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -9829,7 +10053,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-B5', 'Ion TP removal [nan]')</t>
+          <t>('Ion exchange newgenerator-B5', 'Ion eq3 fittings [USD]')</t>
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -9845,7 +10069,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-B5', 'Ion labor maintenance zeolite regeneration [hr/y]')</t>
+          <t>('Ion exchange newgenerator-B5', 'Ion COD removal [nan]')</t>
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -9861,7 +10085,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-B5', 'Ion labor maintenance GAC replacement [hr/y]')</t>
+          <t>('Ion exchange newgenerator-B5', 'Ion TN removal [nan]')</t>
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -9877,7 +10101,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-B5', 'Ion labor replacement zeolite [hr/y]')</t>
+          <t>('Ion exchange newgenerator-B5', 'Ion TP removal [nan]')</t>
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -9893,7 +10117,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-B5', 'Ion labor replacement misc repairs [hr/y]')</t>
+          <t>('Ion exchange newgenerator-B5', 'Ion labor maintenance zeolite regeneration [hr/y]')</t>
         </is>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -9909,7 +10133,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-B5', 'Ion labor replacement other pump [hrs/yr]')</t>
+          <t>('Ion exchange newgenerator-B5', 'Ion labor maintenance GAC replacement [hr/y]')</t>
         </is>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -9925,7 +10149,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-B5', 'Ion backwash pump energy percycle [kWh]')</t>
+          <t>('Ion exchange newgenerator-B5', 'Ion labor replacement zeolite [hr/y]')</t>
         </is>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -9941,7 +10165,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-B5', 'Ion batch cycle perday [# batches day-1]')</t>
+          <t>('Ion exchange newgenerator-B5', 'Ion labor replacement misc repairs [hr/y]')</t>
         </is>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -9957,7 +10181,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-B5', 'Ion gac unit cost [USD/kg]')</t>
+          <t>('Ion exchange newgenerator-B5', 'Ion labor replacement other pump [hrs/yr]')</t>
         </is>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -9973,7 +10197,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-B5', 'Ion zeolite unit cost [USD/kg]')</t>
+          <t>('Ion exchange newgenerator-B5', 'Ion backwash pump energy percycle [kWh]')</t>
         </is>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -9989,7 +10213,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-B5', 'Ion na cl unit cost [USD/kg]')</t>
+          <t>('Ion exchange newgenerator-B5', 'Ion batch cycle perday [# batches day-1]')</t>
         </is>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -10005,7 +10229,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-B5', 'Ion na OH unit cost [USD/kg]')</t>
+          <t>('Ion exchange newgenerator-B5', 'Ion gac unit cost [USD/kg]')</t>
         </is>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -10021,7 +10245,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-B5', 'Ion regen freq per yr [events/yr]')</t>
+          <t>('Ion exchange newgenerator-B5', 'Ion zeolite unit cost [USD/kg]')</t>
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -10037,7 +10261,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-B5', 'Ion regen efficiency [nan]')</t>
+          <t>('Ion exchange newgenerator-B5', 'Ion na cl unit cost [USD/kg]')</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -10053,7 +10277,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-B5', 'Ion polycarbonate weight [kg]')</t>
+          <t>('Ion exchange newgenerator-B5', 'Ion na OH unit cost [USD/kg]')</t>
         </is>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -10069,7 +10293,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-B5', 'Ion steel weight [kg]')</t>
+          <t>('Ion exchange newgenerator-B5', 'Ion regen freq per yr [events/yr]')</t>
         </is>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -10085,7 +10309,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-B5', 'Ion PE weight [kg]')</t>
+          <t>('Ion exchange newgenerator-B5', 'Ion regen efficiency [nan]')</t>
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -10101,7 +10325,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-B5', 'Ion PVC weight [kg]')</t>
+          <t>('Ion exchange newgenerator-B5', 'Ion polycarbonate weight [kg]')</t>
         </is>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -10117,7 +10341,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-B5', 'Ion plastic weight [kg]')</t>
+          <t>('Ion exchange newgenerator-B5', 'Ion steel weight [kg]')</t>
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -10133,7 +10357,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-B5', 'Ion piping PVC weight [kg]')</t>
+          <t>('Ion exchange newgenerator-B5', 'Ion PE weight [kg]')</t>
         </is>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -10149,7 +10373,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-B5', 'Ion piping [USD]')</t>
+          <t>('Ion exchange newgenerator-B5', 'Ion PVC weight [kg]')</t>
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -10165,7 +10389,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-B5', 'Ion replacement scenario drums [USD]')</t>
+          <t>('Ion exchange newgenerator-B5', 'Ion plastic weight [kg]')</t>
         </is>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -10181,7 +10405,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-B5', 'Ion largerncs scenario zeolite tanks [USD]')</t>
+          <t>('Ion exchange newgenerator-B5', 'Ion piping PVC weight [kg]')</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -10197,7 +10421,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-B5', 'Ion largerncs scenario zeolite [USD]')</t>
+          <t>('Ion exchange newgenerator-B5', 'Ion piping [USD]')</t>
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -10213,7 +10437,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>('Ion exchange newgenerator-B5', 'Ion zeolite fittings largerncs [USD]')</t>
+          <t>('Ion exchange newgenerator-B5', 'Ion replacement scenario drums [USD]')</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -10229,7 +10453,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>('Chlorination newgenerator-B6', 'Chlorination recycle pump [USD]')</t>
+          <t>('Ion exchange newgenerator-B5', 'Ion largerncs scenario zeolite tanks [USD]')</t>
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -10245,7 +10469,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>('Chlorination newgenerator-B6', 'Chlorination electochlorinator [USD]')</t>
+          <t>('Ion exchange newgenerator-B5', 'Ion largerncs scenario zeolite [USD]')</t>
         </is>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -10261,7 +10485,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>('Chlorination newgenerator-B6', 'Chlorination powered valve [USD]')</t>
+          <t>('Ion exchange newgenerator-B5', 'Ion zeolite fittings largerncs [USD]')</t>
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -10277,7 +10501,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>('Chlorination newgenerator-B6', 'Chlorination fittings [USD]')</t>
+          <t>('Chlorination newgenerator-B6', 'Chlorination recycle pump [USD]')</t>
         </is>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -10293,7 +10517,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>('Chlorination newgenerator-B6', 'Chlorination tanks [USD]')</t>
+          <t>('Chlorination newgenerator-B6', 'Chlorination electochlorinator [USD]')</t>
         </is>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -10309,7 +10533,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>('Chlorination newgenerator-B6', 'Chlorination COD removal [%]')</t>
+          <t>('Chlorination newgenerator-B6', 'Chlorination powered valve [USD]')</t>
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -10325,7 +10549,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>('Chlorination newgenerator-B6', 'Chlorination TN removal [%]')</t>
+          <t>('Chlorination newgenerator-B6', 'Chlorination fittings [USD]')</t>
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -10341,7 +10565,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>('Chlorination newgenerator-B6', 'Chlorination TP removal [%]')</t>
+          <t>('Chlorination newgenerator-B6', 'Chlorination tanks [USD]')</t>
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -10357,7 +10581,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>('Chlorination newgenerator-B6', 'Chlorination chlorinator energy percycle [kWh]')</t>
+          <t>('Chlorination newgenerator-B6', 'Chlorination COD removal [%]')</t>
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -10373,7 +10597,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>('Chlorination newgenerator-B6', 'Chlorination pump energy percycle [kWh]')</t>
+          <t>('Chlorination newgenerator-B6', 'Chlorination TN removal [%]')</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -10389,7 +10613,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>('Chlorination newgenerator-B6', 'Chlorination ventilation energy percycle [kWh]')</t>
+          <t>('Chlorination newgenerator-B6', 'Chlorination TP removal [%]')</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -10405,7 +10629,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>('Chlorination newgenerator-B6', 'Chlorination valve energy percycle [kWh]')</t>
+          <t>('Chlorination newgenerator-B6', 'Chlorination chlorinator energy percycle [kWh]')</t>
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -10421,7 +10645,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>('Chlorination newgenerator-B6', 'Chlorination product water pump energy percycle [kWh]')</t>
+          <t>('Chlorination newgenerator-B6', 'Chlorination pump energy percycle [kWh]')</t>
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -10437,7 +10661,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>('Chlorination newgenerator-B6', 'Chlorination batch cycle per day [# batches day-1]')</t>
+          <t>('Chlorination newgenerator-B6', 'Chlorination ventilation energy percycle [kWh]')</t>
         </is>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -10453,7 +10677,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>('Chlorination newgenerator-B6', 'Chlorination labor maintenance chlorinator recharging [hr/y]')</t>
+          <t>('Chlorination newgenerator-B6', 'Chlorination valve energy percycle [kWh]')</t>
         </is>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -10469,7 +10693,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>('Chlorination newgenerator-B6', 'Chlorination labor replacement chlorinator replacement [hr/y]')</t>
+          <t>('Chlorination newgenerator-B6', 'Chlorination product water pump energy percycle [kWh]')</t>
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -10485,7 +10709,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>('Chlorination newgenerator-B6', 'Chlorination labor replacement other pump [hr/y]')</t>
+          <t>('Chlorination newgenerator-B6', 'Chlorination batch cycle per day [# batches day-1]')</t>
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -10501,7 +10725,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>('Chlorination newgenerator-B6', 'Chlorination labor replacement misc repairs [hr/y]')</t>
+          <t>('Chlorination newgenerator-B6', 'Chlorination labor maintenance chlorinator recharging [hr/y]')</t>
         </is>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -10517,7 +10741,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>('Chlorination newgenerator-B6', 'Chlorination na cl dosage [mg/L]')</t>
+          <t>('Chlorination newgenerator-B6', 'Chlorination labor replacement chlorinator replacement [hr/y]')</t>
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -10533,7 +10757,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>('Chlorination newgenerator-B6', 'Chlorination throughput flow [L/d]')</t>
+          <t>('Chlorination newgenerator-B6', 'Chlorination labor replacement other pump [hr/y]')</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -10549,7 +10773,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>('Chlorination newgenerator-B6', 'Chlorination PE weight [kg]')</t>
+          <t>('Chlorination newgenerator-B6', 'Chlorination labor replacement misc repairs [hr/y]')</t>
         </is>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -10565,7 +10789,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>('Chlorination newgenerator-B6', 'Chlorination PVC weight [kg]')</t>
+          <t>('Chlorination newgenerator-B6', 'Chlorination na cl dosage [mg/L]')</t>
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -10581,7 +10805,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>('Chlorination newgenerator-B6', 'Chlorination electronics active weight [kg]')</t>
+          <t>('Chlorination newgenerator-B6', 'Chlorination throughput flow [L/d]')</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -10597,7 +10821,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>('Chlorination newgenerator-B6', 'Chlorination piping [USD]')</t>
+          <t>('Chlorination newgenerator-B6', 'Chlorination PE weight [kg]')</t>
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -10613,7 +10837,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>('Chlorination newgenerator-B6', 'Chlorination piping PVC weight [kg]')</t>
+          <t>('Chlorination newgenerator-B6', 'Chlorination PVC weight [kg]')</t>
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -10629,7 +10853,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>('Gridtied newgenerator-B7', 'Grid power ac conversion [USD]')</t>
+          <t>('Chlorination newgenerator-B6', 'Chlorination electronics active weight [kg]')</t>
         </is>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -10645,7 +10869,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>('Gridtied newgenerator-B7', 'Grid power dc distribution [USD]')</t>
+          <t>('Chlorination newgenerator-B6', 'Chlorination piping [USD]')</t>
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -10661,7 +10885,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>('Gridtied newgenerator-B7', 'Grid power misc [USD]')</t>
+          <t>('Chlorination newgenerator-B6', 'Chlorination piping PVC weight [kg]')</t>
         </is>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -10677,7 +10901,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>('Gridtied newgenerator-B7', 'Grid labor replacement misc repairs [hr/y]')</t>
+          <t>('Gridtied newgenerator-B7', 'Grid power ac conversion [USD]')</t>
         </is>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -10693,7 +10917,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>('Gridtied newgenerator-B7', 'Grid polycarbonate weight [kg]')</t>
+          <t>('Gridtied newgenerator-B7', 'Grid power dc distribution [USD]')</t>
         </is>
       </c>
       <c r="C166" t="inlineStr"/>
@@ -10709,7 +10933,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>('Gridtied newgenerator-B7', 'Grid aluminium weight [kg]')</t>
+          <t>('Gridtied newgenerator-B7', 'Grid power misc [USD]')</t>
         </is>
       </c>
       <c r="C167" t="inlineStr"/>
@@ -10725,7 +10949,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>('Gridtied newgenerator-B7', 'Grid electronics passive weight [kg]')</t>
+          <t>('Gridtied newgenerator-B7', 'Grid labor replacement misc repairs [hr/y]')</t>
         </is>
       </c>
       <c r="C168" t="inlineStr"/>
@@ -10741,7 +10965,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>('Gridtied newgenerator-B7', 'Grid electronics active weight [kg]')</t>
+          <t>('Gridtied newgenerator-B7', 'Grid polycarbonate weight [kg]')</t>
         </is>
       </c>
       <c r="C169" t="inlineStr"/>
@@ -10757,7 +10981,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-B8', 'Control box enclosure panel [USD]')</t>
+          <t>('Gridtied newgenerator-B7', 'Grid aluminium weight [kg]')</t>
         </is>
       </c>
       <c r="C170" t="inlineStr"/>
@@ -10773,7 +10997,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-B8', 'Control box arduino microcontroller [USD]')</t>
+          <t>('Gridtied newgenerator-B7', 'Grid electronics passive weight [kg]')</t>
         </is>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -10789,7 +11013,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-B8', 'Control box microcontroller din rails [USD]')</t>
+          <t>('Gridtied newgenerator-B7', 'Grid electronics active weight [kg]')</t>
         </is>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -10805,7 +11029,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-B8', 'Control box wifi [USD]')</t>
+          <t>('Controls newgenerator-B8', 'Control box enclosure panel [USD]')</t>
         </is>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -10821,7 +11045,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-B8', 'Control box solid state relays [USD]')</t>
+          <t>('Controls newgenerator-B8', 'Control box arduino microcontroller [USD]')</t>
         </is>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -10837,7 +11061,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-B8', 'Control box other relays [USD]')</t>
+          <t>('Controls newgenerator-B8', 'Control box microcontroller din rails [USD]')</t>
         </is>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -10853,7 +11077,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-B8', 'Control box conductors [USD]')</t>
+          <t>('Controls newgenerator-B8', 'Control box wifi [USD]')</t>
         </is>
       </c>
       <c r="C176" t="inlineStr"/>
@@ -10869,7 +11093,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-B8', 'Control box din rails [USD]')</t>
+          <t>('Controls newgenerator-B8', 'Control box solid state relays [USD]')</t>
         </is>
       </c>
       <c r="C177" t="inlineStr"/>
@@ -10885,7 +11109,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-B8', 'Control sensors enclosure panel [USD]')</t>
+          <t>('Controls newgenerator-B8', 'Control box other relays [USD]')</t>
         </is>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -10901,7 +11125,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-B8', 'Control sensors signal conditioners [USD]')</t>
+          <t>('Controls newgenerator-B8', 'Control box conductors [USD]')</t>
         </is>
       </c>
       <c r="C179" t="inlineStr"/>
@@ -10917,7 +11141,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-B8', 'Control sensors din rails [USD]')</t>
+          <t>('Controls newgenerator-B8', 'Control box din rails [USD]')</t>
         </is>
       </c>
       <c r="C180" t="inlineStr"/>
@@ -10933,7 +11157,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-B8', 'Control sensors voltage converter [USD]')</t>
+          <t>('Controls newgenerator-B8', 'Control sensors enclosure panel [USD]')</t>
         </is>
       </c>
       <c r="C181" t="inlineStr"/>
@@ -10949,7 +11173,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-B8', 'Control orp enclosure panel [USD]')</t>
+          <t>('Controls newgenerator-B8', 'Control sensors signal conditioners [USD]')</t>
         </is>
       </c>
       <c r="C182" t="inlineStr"/>
@@ -10965,7 +11189,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-B8', 'Control orp voltage converter [USD]')</t>
+          <t>('Controls newgenerator-B8', 'Control sensors din rails [USD]')</t>
         </is>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -10981,7 +11205,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-B8', 'Control orp controller [USD]')</t>
+          <t>('Controls newgenerator-B8', 'Control sensors voltage converter [USD]')</t>
         </is>
       </c>
       <c r="C184" t="inlineStr"/>
@@ -10997,7 +11221,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-B8', 'Control orp probe [USD]')</t>
+          <t>('Controls newgenerator-B8', 'Control orp enclosure panel [USD]')</t>
         </is>
       </c>
       <c r="C185" t="inlineStr"/>
@@ -11013,7 +11237,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-B8', 'Control orp cables [USD]')</t>
+          <t>('Controls newgenerator-B8', 'Control orp voltage converter [USD]')</t>
         </is>
       </c>
       <c r="C186" t="inlineStr"/>
@@ -11029,7 +11253,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-B8', 'Control pump enclosure panel [USD]')</t>
+          <t>('Controls newgenerator-B8', 'Control orp controller [USD]')</t>
         </is>
       </c>
       <c r="C187" t="inlineStr"/>
@@ -11045,7 +11269,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-B8', 'Control pump voltage converter [USD]')</t>
+          <t>('Controls newgenerator-B8', 'Control orp probe [USD]')</t>
         </is>
       </c>
       <c r="C188" t="inlineStr"/>
@@ -11061,7 +11285,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-B8', 'Control pump voltage rectifier [USD]')</t>
+          <t>('Controls newgenerator-B8', 'Control orp cables [USD]')</t>
         </is>
       </c>
       <c r="C189" t="inlineStr"/>
@@ -11077,7 +11301,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-B8', 'Control pump box relay [USD]')</t>
+          <t>('Controls newgenerator-B8', 'Control pump enclosure panel [USD]')</t>
         </is>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -11093,7 +11317,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-B8', 'Control sensors level sensor [USD]')</t>
+          <t>('Controls newgenerator-B8', 'Control pump voltage converter [USD]')</t>
         </is>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -11109,7 +11333,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-B8', 'Control sensors level switch [USD]')</t>
+          <t>('Controls newgenerator-B8', 'Control pump voltage rectifier [USD]')</t>
         </is>
       </c>
       <c r="C192" t="inlineStr"/>
@@ -11125,7 +11349,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-B8', 'Control sensors flow switches [USD]')</t>
+          <t>('Controls newgenerator-B8', 'Control pump box relay [USD]')</t>
         </is>
       </c>
       <c r="C193" t="inlineStr"/>
@@ -11141,7 +11365,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-B8', 'Control sensors proximity sensor [USD]')</t>
+          <t>('Controls newgenerator-B8', 'Control sensors level sensor [USD]')</t>
         </is>
       </c>
       <c r="C194" t="inlineStr"/>
@@ -11157,7 +11381,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-B8', 'Control stranded cables [USD]')</t>
+          <t>('Controls newgenerator-B8', 'Control sensors level switch [USD]')</t>
         </is>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -11173,7 +11397,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-B8', 'Control sensor cables [USD]')</t>
+          <t>('Controls newgenerator-B8', 'Control sensors flow switches [USD]')</t>
         </is>
       </c>
       <c r="C196" t="inlineStr"/>
@@ -11189,7 +11413,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-B8', 'Control cable glands [USD]')</t>
+          <t>('Controls newgenerator-B8', 'Control sensors proximity sensor [USD]')</t>
         </is>
       </c>
       <c r="C197" t="inlineStr"/>
@@ -11205,7 +11429,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-B8', 'Control gauge ferrules [USD]')</t>
+          <t>('Controls newgenerator-B8', 'Control stranded cables [USD]')</t>
         </is>
       </c>
       <c r="C198" t="inlineStr"/>
@@ -11221,7 +11445,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-B8', 'Control zip ties [USD]')</t>
+          <t>('Controls newgenerator-B8', 'Control sensor cables [USD]')</t>
         </is>
       </c>
       <c r="C199" t="inlineStr"/>
@@ -11237,7 +11461,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-B8', 'Control terminal block jumper [USD]')</t>
+          <t>('Controls newgenerator-B8', 'Control cable glands [USD]')</t>
         </is>
       </c>
       <c r="C200" t="inlineStr"/>
@@ -11253,7 +11477,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-B8', 'Control system energy percycle [kW]')</t>
+          <t>('Controls newgenerator-B8', 'Control gauge ferrules [USD]')</t>
         </is>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -11269,7 +11493,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-B8', 'Control system ORP energy percycle [kW]')</t>
+          <t>('Controls newgenerator-B8', 'Control zip ties [USD]')</t>
         </is>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -11285,7 +11509,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-B8', 'Control background runtime energy perday [kWh]')</t>
+          <t>('Controls newgenerator-B8', 'Control terminal block jumper [USD]')</t>
         </is>
       </c>
       <c r="C203" t="inlineStr"/>
@@ -11301,7 +11525,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-B8', 'Control batch cycle perday [# batches day-1]')</t>
+          <t>('Controls newgenerator-B8', 'Control system energy percycle [kW]')</t>
         </is>
       </c>
       <c r="C204" t="inlineStr"/>
@@ -11317,7 +11541,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-B8', 'Control labor replacement misc repairs [hr/y]')</t>
+          <t>('Controls newgenerator-B8', 'Control system ORP energy percycle [kW]')</t>
         </is>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -11333,7 +11557,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-B8', 'Control polycarbonate weight [kg]')</t>
+          <t>('Controls newgenerator-B8', 'Control background runtime energy perday [kWh]')</t>
         </is>
       </c>
       <c r="C206" t="inlineStr"/>
@@ -11349,7 +11573,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-B8', 'Control aluminum weight [kg]')</t>
+          <t>('Controls newgenerator-B8', 'Control batch cycle perday [# batches day-1]')</t>
         </is>
       </c>
       <c r="C207" t="inlineStr"/>
@@ -11365,7 +11589,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-B8', 'Control cable length [m]')</t>
+          <t>('Controls newgenerator-B8', 'Control labor replacement misc repairs [hr/y]')</t>
         </is>
       </c>
       <c r="C208" t="inlineStr"/>
@@ -11381,7 +11605,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-B8', 'Control electronics passive weight [kg]')</t>
+          <t>('Controls newgenerator-B8', 'Control polycarbonate weight [kg]')</t>
         </is>
       </c>
       <c r="C209" t="inlineStr"/>
@@ -11397,7 +11621,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-B8', 'Control electronics active weight [kg]')</t>
+          <t>('Controls newgenerator-B8', 'Control aluminum weight [kg]')</t>
         </is>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -11413,7 +11637,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>('Controls newgenerator-B8', 'Control control units weight [kg]')</t>
+          <t>('Controls newgenerator-B8', 'Control cable length [m]')</t>
         </is>
       </c>
       <c r="C211" t="inlineStr"/>
@@ -11429,7 +11653,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>('Housing newgenerator-B9', 'Housing framework [USD]')</t>
+          <t>('Controls newgenerator-B8', 'Control electronics passive weight [kg]')</t>
         </is>
       </c>
       <c r="C212" t="inlineStr"/>
@@ -11445,7 +11669,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>('Housing newgenerator-B9', 'Housing framework shipping [USD]')</t>
+          <t>('Controls newgenerator-B8', 'Control electronics active weight [kg]')</t>
         </is>
       </c>
       <c r="C213" t="inlineStr"/>
@@ -11461,7 +11685,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>('Housing newgenerator-B9', 'Housing fittings [USD]')</t>
+          <t>('Controls newgenerator-B8', 'Control control units weight [kg]')</t>
         </is>
       </c>
       <c r="C214" t="inlineStr"/>
@@ -11477,7 +11701,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>('Housing newgenerator-B9', 'Housing steel weight [kg]')</t>
+          <t>('Housing newgenerator-B9', 'Housing framework [USD]')</t>
         </is>
       </c>
       <c r="C215" t="inlineStr"/>
@@ -11493,7 +11717,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>('Housing newgenerator-B9', 'Housing zinc coated steel weight [kg]')</t>
+          <t>('Housing newgenerator-B9', 'Housing framework shipping [USD]')</t>
         </is>
       </c>
       <c r="C216" t="inlineStr"/>
@@ -11509,7 +11733,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>('Housing newgenerator-B9', 'Housing zinc coat [m2]')</t>
+          <t>('Housing newgenerator-B9', 'Housing fittings [USD]')</t>
         </is>
       </c>
       <c r="C217" t="inlineStr"/>
@@ -11525,7 +11749,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>('Housing newgenerator-B9', 'Housing aluminum weight [kg]')</t>
+          <t>('Housing newgenerator-B9', 'Housing steel weight [kg]')</t>
         </is>
       </c>
       <c r="C218" t="inlineStr"/>
@@ -11541,7 +11765,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>('Housing newgenerator-B9', 'Housing PE weight [kg]')</t>
+          <t>('Housing newgenerator-B9', 'Housing zinc coated steel weight [kg]')</t>
         </is>
       </c>
       <c r="C219" t="inlineStr"/>
@@ -11557,7 +11781,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>('Housing newgenerator-B9', 'Housing largerncs framework [USD]')</t>
+          <t>('Housing newgenerator-B9', 'Housing zinc coat [m2]')</t>
         </is>
       </c>
       <c r="C220" t="inlineStr"/>
@@ -11573,7 +11797,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>('Housing newgenerator-B9', 'Cheaper housing framework [USD]')</t>
+          <t>('Housing newgenerator-B9', 'Housing aluminum weight [kg]')</t>
         </is>
       </c>
       <c r="C221" t="inlineStr"/>
@@ -11589,7 +11813,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>('LCA', 'CH4 CF [kg CO2-eq/kg CH4]')</t>
+          <t>('Housing newgenerator-B9', 'Housing PE weight [kg]')</t>
         </is>
       </c>
       <c r="C222" t="inlineStr"/>
@@ -11605,7 +11829,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>('LCA', 'CH4 ecosystems CF [points/kg CH4]')</t>
+          <t>('Housing newgenerator-B9', 'Housing largerncs framework [USD]')</t>
         </is>
       </c>
       <c r="C223" t="inlineStr"/>
@@ -11621,7 +11845,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>('LCA', 'CH4 health CF [points/kg CH4]')</t>
+          <t>('Housing newgenerator-B9', 'Cheaper housing framework [USD]')</t>
         </is>
       </c>
       <c r="C224" t="inlineStr"/>
@@ -11637,7 +11861,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>('LCA', 'CH4 resources CF [points/kg CH4]')</t>
+          <t>('LCA', 'CH4 CF [kg CO2-eq/kg CH4]')</t>
         </is>
       </c>
       <c r="C225" t="inlineStr"/>
@@ -11653,7 +11877,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>('LCA', 'N2O CF [kg CO2-eq/kg N2O]')</t>
+          <t>('LCA', 'CH4 ecosystems CF [points/kg CH4]')</t>
         </is>
       </c>
       <c r="C226" t="inlineStr"/>
@@ -11669,7 +11893,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>('LCA', 'N2O ecosystems CF [points/kg N2O]')</t>
+          <t>('LCA', 'CH4 health CF [points/kg CH4]')</t>
         </is>
       </c>
       <c r="C227" t="inlineStr"/>
@@ -11685,7 +11909,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>('LCA', 'N2O health CF [points/kg N2O]')</t>
+          <t>('LCA', 'N2O CF [kg CO2-eq/kg N2O]')</t>
         </is>
       </c>
       <c r="C228" t="inlineStr"/>
@@ -11701,7 +11925,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>('LCA', 'N2O resources CF [points/kg N2O]')</t>
+          <t>('LCA', 'N2O ecosystems CF [points/kg N2O]')</t>
         </is>
       </c>
       <c r="C229" t="inlineStr"/>
@@ -11717,7 +11941,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>('LCA', 'Conc nh3 CF [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'N2O health CF [points/kg N2O]')</t>
         </is>
       </c>
       <c r="C230" t="inlineStr"/>
@@ -11733,7 +11957,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>('LCA', 'Conc nh3 ecosystems CF [points/kg]')</t>
+          <t>('LCA', 'N fertilizer CF [kg CO2-eq/kg N]')</t>
         </is>
       </c>
       <c r="C231" t="inlineStr"/>
@@ -11749,7 +11973,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>('LCA', 'Conc nh3 health CF [points/kg]')</t>
+          <t>('LCA', 'N fertilizer ecosystems CF [points/kg N]')</t>
         </is>
       </c>
       <c r="C232" t="inlineStr"/>
@@ -11765,7 +11989,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>('LCA', 'Conc nh3 resources CF [points/kg]')</t>
+          <t>('LCA', 'N fertilizer health CF [points/kg N]')</t>
         </is>
       </c>
       <c r="C233" t="inlineStr"/>
@@ -11781,7 +12005,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>('LCA', 'GAC CF [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'N fertilizer resources CF [points/kg N]')</t>
         </is>
       </c>
       <c r="C234" t="inlineStr"/>
@@ -11797,7 +12021,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>('LCA', 'GAC ecosystems CF [points/kg]')</t>
+          <t>('LCA', 'P fertilizer CF [kg CO2-eq/kg P]')</t>
         </is>
       </c>
       <c r="C235" t="inlineStr"/>
@@ -11813,7 +12037,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>('LCA', 'GAC health CF [points/kg]')</t>
+          <t>('LCA', 'P fertilizer ecosystems CF [points/kg P]')</t>
         </is>
       </c>
       <c r="C236" t="inlineStr"/>
@@ -11829,7 +12053,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>('LCA', 'GAC resources CF [points/kg]')</t>
+          <t>('LCA', 'P fertilizer health CF [points/kg P]')</t>
         </is>
       </c>
       <c r="C237" t="inlineStr"/>
@@ -11845,7 +12069,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>('LCA', 'Zeolite CF [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'P fertilizer resources CF [points/kg P]')</t>
         </is>
       </c>
       <c r="C238" t="inlineStr"/>
@@ -11861,7 +12085,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>('LCA', 'Zeolite ecosystems CF [points/kg]')</t>
+          <t>('LCA', 'K fertilizer CF [kg CO2-eq/kg K]')</t>
         </is>
       </c>
       <c r="C239" t="inlineStr"/>
@@ -11877,7 +12101,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>('LCA', 'Zeolite health CF [points/kg]')</t>
+          <t>('LCA', 'Conc nh3 CF [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C240" t="inlineStr"/>
@@ -11893,7 +12117,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>('LCA', 'Zeolite resources CF [points/kg]')</t>
+          <t>('LCA', 'Conc nh3 ecosystems CF [points/kg]')</t>
         </is>
       </c>
       <c r="C241" t="inlineStr"/>
@@ -11909,7 +12133,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>('LCA', 'Na cl CF [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'Conc nh3 health CF [points/kg]')</t>
         </is>
       </c>
       <c r="C242" t="inlineStr"/>
@@ -11925,7 +12149,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>('LCA', 'Na cl ecosystems CF [points/kg]')</t>
+          <t>('LCA', 'Conc nh3 resources CF [points/kg]')</t>
         </is>
       </c>
       <c r="C243" t="inlineStr"/>
@@ -11941,7 +12165,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>('LCA', 'Na cl health CF [points/kg]')</t>
+          <t>('LCA', 'GAC CF [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C244" t="inlineStr"/>
@@ -11957,7 +12181,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>('LCA', 'Na cl resources CF [points/kg]')</t>
+          <t>('LCA', 'GAC ecosystems CF [points/kg]')</t>
         </is>
       </c>
       <c r="C245" t="inlineStr"/>
@@ -11973,7 +12197,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>('LCA', 'Na cl1 CF [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'GAC health CF [points/kg]')</t>
         </is>
       </c>
       <c r="C246" t="inlineStr"/>
@@ -11989,7 +12213,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>('LCA', 'Na cl1 ecosystems CF [points/kg]')</t>
+          <t>('LCA', 'GAC resources CF [points/kg]')</t>
         </is>
       </c>
       <c r="C247" t="inlineStr"/>
@@ -12005,7 +12229,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>('LCA', 'Na cl1 health CF [points/kg]')</t>
+          <t>('LCA', 'Zeolite CF [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C248" t="inlineStr"/>
@@ -12021,7 +12245,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>('LCA', 'Na cl1 resources CF [points/kg]')</t>
+          <t>('LCA', 'Zeolite ecosystems CF [points/kg]')</t>
         </is>
       </c>
       <c r="C249" t="inlineStr"/>
@@ -12037,7 +12261,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>('LCA', 'Na OH CF [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'Zeolite health CF [points/kg]')</t>
         </is>
       </c>
       <c r="C250" t="inlineStr"/>
@@ -12053,7 +12277,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>('LCA', 'Na OH ecosystems CF [points/kg]')</t>
+          <t>('LCA', 'Zeolite resources CF [points/kg]')</t>
         </is>
       </c>
       <c r="C251" t="inlineStr"/>
@@ -12069,7 +12293,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>('LCA', 'Na OH health CF [points/kg]')</t>
+          <t>('LCA', 'Na cl CF [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C252" t="inlineStr"/>
@@ -12085,7 +12309,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>('LCA', 'Na OH resources CF [points/kg]')</t>
+          <t>('LCA', 'Na cl ecosystems CF [points/kg]')</t>
         </is>
       </c>
       <c r="C253" t="inlineStr"/>
@@ -12101,7 +12325,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>('LCA', 'LPG CF [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'Na cl health CF [points/kg]')</t>
         </is>
       </c>
       <c r="C254" t="inlineStr"/>
@@ -12117,7 +12341,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>('LCA', 'LPG ecosystems CF [points/kg]')</t>
+          <t>('LCA', 'Na cl resources CF [points/kg]')</t>
         </is>
       </c>
       <c r="C255" t="inlineStr"/>
@@ -12133,7 +12357,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>('LCA', 'LPG health CF [points/kg]')</t>
+          <t>('LCA', 'Na cl1 CF [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C256" t="inlineStr"/>
@@ -12149,7 +12373,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>('LCA', 'LPG resources CF [points/kg]')</t>
+          <t>('LCA', 'Na cl1 ecosystems CF [points/kg]')</t>
         </is>
       </c>
       <c r="C257" t="inlineStr"/>
@@ -12165,7 +12389,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>('LCA', 'Excavation-Global warming [kg CO2-eq/m3]')</t>
+          <t>('LCA', 'Na cl1 health CF [points/kg]')</t>
         </is>
       </c>
       <c r="C258" t="inlineStr"/>
@@ -12181,7 +12405,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>('LCA', 'Brick-Global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'Na cl1 resources CF [points/kg]')</t>
         </is>
       </c>
       <c r="C259" t="inlineStr"/>
@@ -12197,7 +12421,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>('LCA', 'Cement-Global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'Na OH CF [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C260" t="inlineStr"/>
@@ -12213,7 +12437,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>('LCA', 'Concrete-Global warming [kg CO2-eq/m3]')</t>
+          <t>('LCA', 'Na OH ecosystems CF [points/kg]')</t>
         </is>
       </c>
       <c r="C261" t="inlineStr"/>
@@ -12229,7 +12453,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>('LCA', 'Gravel-Global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'Na OH health CF [points/kg]')</t>
         </is>
       </c>
       <c r="C262" t="inlineStr"/>
@@ -12245,7 +12469,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>('LCA', 'Plastic-Global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'Na OH resources CF [points/kg]')</t>
         </is>
       </c>
       <c r="C263" t="inlineStr"/>
@@ -12261,7 +12485,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>('LCA', 'Sand-Global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'LPG CF [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C264" t="inlineStr"/>
@@ -12277,7 +12501,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>('LCA', 'Stainless steel-global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'LPG ecosystems CF [points/kg]')</t>
         </is>
       </c>
       <c r="C265" t="inlineStr"/>
@@ -12293,7 +12517,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>('LCA', 'Stainless steel sheet-global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'LPG health CF [points/kg]')</t>
         </is>
       </c>
       <c r="C266" t="inlineStr"/>
@@ -12309,7 +12533,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>('LCA', 'Steel-Global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'LPG resources CF [points/kg]')</t>
         </is>
       </c>
       <c r="C267" t="inlineStr"/>
@@ -12325,7 +12549,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>('LCA', 'Wood-Global warming [kg CO2-eq/m3]')</t>
+          <t>('LCA', 'Excavation-Global warming [kg CO2-eq/m3]')</t>
         </is>
       </c>
       <c r="C268" t="inlineStr"/>
@@ -12341,7 +12565,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>('LCA', 'Trucking-Global warming [kg CO2-eq/tonne*km]')</t>
+          <t>('LCA', 'Brick-Global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C269" t="inlineStr"/>
@@ -12357,7 +12581,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>('LCA', 'Electric motor-global warming [kg CO2-eq/ea]')</t>
+          <t>('LCA', 'Cement-Global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C270" t="inlineStr"/>
@@ -12373,7 +12597,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>('LCA', 'Electronics-Global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'Concrete-Global warming [kg CO2-eq/m3]')</t>
         </is>
       </c>
       <c r="C271" t="inlineStr"/>
@@ -12389,7 +12613,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>('LCA', 'Catalytic converter-global warming [kg CO2-eq/ea]')</t>
+          <t>('LCA', 'Gravel-Global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C272" t="inlineStr"/>
@@ -12405,7 +12629,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>('LCA', 'Oil heat exchanger-global warming [kg CO2-eq/ea]')</t>
+          <t>('LCA', 'Plastic-Global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C273" t="inlineStr"/>
@@ -12421,7 +12645,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>('LCA', 'Pump-Global warming [kg CO2-eq/ea]')</t>
+          <t>('LCA', 'Sand-Global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C274" t="inlineStr"/>
@@ -12437,7 +12661,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>('LCA', 'Hydronic heat exchanger-global warming [kg CO2-eq/ea]')</t>
+          <t>('LCA', 'Stainless steel-global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C275" t="inlineStr"/>
@@ -12453,7 +12677,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>('LCA', 'Electric connectors-global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'Stainless steel sheet-global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C276" t="inlineStr"/>
@@ -12469,7 +12693,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>('LCA', 'Electric cables-global warming [kg CO2-eq/m]')</t>
+          <t>('LCA', 'Steel-Global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C277" t="inlineStr"/>
@@ -12485,7 +12709,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>('LCA', 'PVC-Global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'Wood-Global warming [kg CO2-eq/m3]')</t>
         </is>
       </c>
       <c r="C278" t="inlineStr"/>
@@ -12501,7 +12725,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>('LCA', 'PE-Global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'Trucking-Global warming [kg CO2-eq/tonne*km]')</t>
         </is>
       </c>
       <c r="C279" t="inlineStr"/>
@@ -12517,7 +12741,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>('LCA', 'Polymer-Global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'Electric motor-global warming [kg CO2-eq/ea]')</t>
         </is>
       </c>
       <c r="C280" t="inlineStr"/>
@@ -12533,7 +12757,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>('LCA', 'Cationic resin-global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'Electronics-Global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C281" t="inlineStr"/>
@@ -12549,7 +12773,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>('LCA', 'Ceramic-Global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'Catalytic converter-global warming [kg CO2-eq/ea]')</t>
         </is>
       </c>
       <c r="C282" t="inlineStr"/>
@@ -12565,7 +12789,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>('LCA', 'Fan-Global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'Oil heat exchanger-global warming [kg CO2-eq/ea]')</t>
         </is>
       </c>
       <c r="C283" t="inlineStr"/>
@@ -12581,7 +12805,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>('LCA', 'Aluminum-Global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'Pump-Global warming [kg CO2-eq/ea]')</t>
         </is>
       </c>
       <c r="C284" t="inlineStr"/>
@@ -12597,7 +12821,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>('LCA', 'LPG-Global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'Hydronic heat exchanger-global warming [kg CO2-eq/ea]')</t>
         </is>
       </c>
       <c r="C285" t="inlineStr"/>
@@ -12613,7 +12837,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>('LCA', 'Zinc coat-global warming [kg CO2-eq/m2]')</t>
+          <t>('LCA', 'Electric connectors-global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C286" t="inlineStr"/>
@@ -12629,7 +12853,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>('LCA', 'Polyacrylamide-Global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'Electric cables-global warming [kg CO2-eq/m]')</t>
         </is>
       </c>
       <c r="C287" t="inlineStr"/>
@@ -12645,7 +12869,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>('LCA', 'Photovoltaic panel-global warming [kg CO2-eq/m2]')</t>
+          <t>('LCA', 'PVC-Global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C288" t="inlineStr"/>
@@ -12661,7 +12885,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>('LCA', 'GACProduction-Global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'PE-Global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C289" t="inlineStr"/>
@@ -12677,7 +12901,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>('LCA', 'GACRegeneration-Global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'Polymer-Global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C290" t="inlineStr"/>
@@ -12693,7 +12917,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>('LCA', 'Switches-Global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'Cationic resin-global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C291" t="inlineStr"/>
@@ -12709,7 +12933,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>('LCA', 'Control units-global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'Ceramic-Global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C292" t="inlineStr"/>
@@ -12725,7 +12949,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>('LCA', 'Electronics active-global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'Fan-Global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C293" t="inlineStr"/>
@@ -12741,7 +12965,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>('LCA', 'Electronics passive-global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'Aluminum-Global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C294" t="inlineStr"/>
@@ -12757,7 +12981,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>('LCA', 'Transformers-Global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'LPG-Global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C295" t="inlineStr"/>
@@ -12773,7 +12997,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>('LCA', 'Fertilizer offset-global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'Zinc coat-global warming [kg CO2-eq/m2]')</t>
         </is>
       </c>
       <c r="C296" t="inlineStr"/>
@@ -12789,7 +13013,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>('LCA', 'Polycarbonate-Global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'Polyacrylamide-Global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C297" t="inlineStr"/>
@@ -12805,7 +13029,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>('LCA', 'Membrane-Global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'Photovoltaic panel-global warming [kg CO2-eq/m2]')</t>
         </is>
       </c>
       <c r="C298" t="inlineStr"/>
@@ -12821,7 +13045,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>('LCA', 'Na cl-global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'GACProduction-Global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C299" t="inlineStr"/>
@@ -12837,7 +13061,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>('LCA', 'Na oh-global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'GACRegeneration-Global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C300" t="inlineStr"/>
@@ -12853,7 +13077,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>('LCA', 'Zeolite-Global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'Switches-Global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C301" t="inlineStr"/>
@@ -12869,7 +13093,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>('LCA', 'Battery-Global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'Control units-global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C302" t="inlineStr"/>
@@ -12885,7 +13109,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>('LCA', 'Lithium battery-global warming [kg CO2-eq/kg]')</t>
+          <t>('LCA', 'Electronics active-global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C303" t="inlineStr"/>
@@ -12901,7 +13125,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>('LCA', 'Excavation-H ecosystems [points/m3]')</t>
+          <t>('LCA', 'Electronics passive-global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C304" t="inlineStr"/>
@@ -12917,7 +13141,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>('LCA', 'Brick-H ecosystems [points/kg]')</t>
+          <t>('LCA', 'Transformers-Global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C305" t="inlineStr"/>
@@ -12933,7 +13157,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>('LCA', 'Cement-H ecosystems [points/kg]')</t>
+          <t>('LCA', 'Fertilizer offset-global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C306" t="inlineStr"/>
@@ -12949,7 +13173,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>('LCA', 'Concrete-H ecosystems [points/m3]')</t>
+          <t>('LCA', 'Polycarbonate-Global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C307" t="inlineStr"/>
@@ -12965,7 +13189,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>('LCA', 'Gravel-H ecosystems [points/kg]')</t>
+          <t>('LCA', 'Membrane-Global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C308" t="inlineStr"/>
@@ -12981,7 +13205,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>('LCA', 'Plastic-H ecosystems [points/kg]')</t>
+          <t>('LCA', 'Na cl-global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C309" t="inlineStr"/>
@@ -12997,7 +13221,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>('LCA', 'Sand-H ecosystems [points/kg]')</t>
+          <t>('LCA', 'Na oh-global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C310" t="inlineStr"/>
@@ -13013,7 +13237,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>('LCA', 'Stainless steel-h ecosystems [points/kg]')</t>
+          <t>('LCA', 'Zeolite-Global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C311" t="inlineStr"/>
@@ -13029,7 +13253,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>('LCA', 'Stainless steel sheet-h ecosystems [points/kg]')</t>
+          <t>('LCA', 'Battery-Global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C312" t="inlineStr"/>
@@ -13045,7 +13269,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>('LCA', 'Steel-H ecosystems [points/kg]')</t>
+          <t>('LCA', 'Lithium battery-global warming [kg CO2-eq/kg]')</t>
         </is>
       </c>
       <c r="C313" t="inlineStr"/>
@@ -13061,7 +13285,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>('LCA', 'Wood-H ecosystems [points/m3]')</t>
+          <t>('LCA', 'Excavation-H ecosystems [points/m3]')</t>
         </is>
       </c>
       <c r="C314" t="inlineStr"/>
@@ -13077,7 +13301,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>('LCA', 'Trucking-H ecosystems [points/tonne*km]')</t>
+          <t>('LCA', 'Brick-H ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C315" t="inlineStr"/>
@@ -13093,7 +13317,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>('LCA', 'Electric motor-h ecosystems [points/ea]')</t>
+          <t>('LCA', 'Cement-H ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C316" t="inlineStr"/>
@@ -13109,7 +13333,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>('LCA', 'Electronics-H ecosystems [points/kg]')</t>
+          <t>('LCA', 'Concrete-H ecosystems [points/m3]')</t>
         </is>
       </c>
       <c r="C317" t="inlineStr"/>
@@ -13125,7 +13349,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>('LCA', 'Catalytic converter-h ecosystems [points/ea]')</t>
+          <t>('LCA', 'Gravel-H ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C318" t="inlineStr"/>
@@ -13141,7 +13365,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>('LCA', 'Oil heat exchanger-h ecosystems [points/ea]')</t>
+          <t>('LCA', 'Plastic-H ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C319" t="inlineStr"/>
@@ -13157,7 +13381,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>('LCA', 'Pump-H ecosystems [points/ea]')</t>
+          <t>('LCA', 'Sand-H ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C320" t="inlineStr"/>
@@ -13173,7 +13397,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>('LCA', 'Hydronic heat exchanger-h ecosystems [points/ea]')</t>
+          <t>('LCA', 'Stainless steel-h ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C321" t="inlineStr"/>
@@ -13189,7 +13413,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>('LCA', 'Electric connectors-h ecosystems [points/kg]')</t>
+          <t>('LCA', 'Stainless steel sheet-h ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C322" t="inlineStr"/>
@@ -13205,7 +13429,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>('LCA', 'Electric cables-h ecosystems [points/m]')</t>
+          <t>('LCA', 'Steel-H ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C323" t="inlineStr"/>
@@ -13221,7 +13445,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>('LCA', 'PVC-H ecosystems [points/kg]')</t>
+          <t>('LCA', 'Wood-H ecosystems [points/m3]')</t>
         </is>
       </c>
       <c r="C324" t="inlineStr"/>
@@ -13237,7 +13461,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>('LCA', 'PE-H ecosystems [points/kg]')</t>
+          <t>('LCA', 'Trucking-H ecosystems [points/tonne*km]')</t>
         </is>
       </c>
       <c r="C325" t="inlineStr"/>
@@ -13253,7 +13477,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>('LCA', 'Polymer-H ecosystems [points/kg]')</t>
+          <t>('LCA', 'Electric motor-h ecosystems [points/ea]')</t>
         </is>
       </c>
       <c r="C326" t="inlineStr"/>
@@ -13269,7 +13493,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>('LCA', 'Cationic resin-h ecosystems [points/kg]')</t>
+          <t>('LCA', 'Electronics-H ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C327" t="inlineStr"/>
@@ -13285,7 +13509,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>('LCA', 'Ceramic-H ecosystems [points/kg]')</t>
+          <t>('LCA', 'Catalytic converter-h ecosystems [points/ea]')</t>
         </is>
       </c>
       <c r="C328" t="inlineStr"/>
@@ -13301,7 +13525,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>('LCA', 'Fan-H ecosystems [points/kg]')</t>
+          <t>('LCA', 'Oil heat exchanger-h ecosystems [points/ea]')</t>
         </is>
       </c>
       <c r="C329" t="inlineStr"/>
@@ -13317,7 +13541,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>('LCA', 'Aluminum-H ecosystems [points/kg]')</t>
+          <t>('LCA', 'Pump-H ecosystems [points/ea]')</t>
         </is>
       </c>
       <c r="C330" t="inlineStr"/>
@@ -13333,7 +13557,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>('LCA', 'LPG-H ecosystems [points/kg]')</t>
+          <t>('LCA', 'Hydronic heat exchanger-h ecosystems [points/ea]')</t>
         </is>
       </c>
       <c r="C331" t="inlineStr"/>
@@ -13349,7 +13573,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>('LCA', 'Zinc coat-h ecosystems [points/m2]')</t>
+          <t>('LCA', 'Electric connectors-h ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C332" t="inlineStr"/>
@@ -13365,7 +13589,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>('LCA', 'Polyacrylamide-H ecosystems [points/kg]')</t>
+          <t>('LCA', 'Electric cables-h ecosystems [points/m]')</t>
         </is>
       </c>
       <c r="C333" t="inlineStr"/>
@@ -13381,7 +13605,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>('LCA', 'Photovoltaic panel-h ecosystems [points/m2]')</t>
+          <t>('LCA', 'PVC-H ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C334" t="inlineStr"/>
@@ -13397,7 +13621,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>('LCA', 'GACProduction-H ecosystems [points/kg]')</t>
+          <t>('LCA', 'PE-H ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C335" t="inlineStr"/>
@@ -13413,7 +13637,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>('LCA', 'GACRegeneration-H ecosystems [points/kg]')</t>
+          <t>('LCA', 'Polymer-H ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C336" t="inlineStr"/>
@@ -13429,7 +13653,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>('LCA', 'Switches-H ecosystems [points/kg]')</t>
+          <t>('LCA', 'Cationic resin-h ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C337" t="inlineStr"/>
@@ -13445,7 +13669,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>('LCA', 'Control units-h ecosystems [points/kg]')</t>
+          <t>('LCA', 'Ceramic-H ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C338" t="inlineStr"/>
@@ -13461,7 +13685,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>('LCA', 'Electronics active-h ecosystems [points/kg]')</t>
+          <t>('LCA', 'Fan-H ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C339" t="inlineStr"/>
@@ -13477,7 +13701,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>('LCA', 'Electronics passive-h ecosystems [points/kg]')</t>
+          <t>('LCA', 'Aluminum-H ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C340" t="inlineStr"/>
@@ -13493,7 +13717,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>('LCA', 'Transformers-H ecosystems [points/kg]')</t>
+          <t>('LCA', 'LPG-H ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C341" t="inlineStr"/>
@@ -13509,7 +13733,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>('LCA', 'Fertilizer offset-h ecosystems [points/kg]')</t>
+          <t>('LCA', 'Zinc coat-h ecosystems [points/m2]')</t>
         </is>
       </c>
       <c r="C342" t="inlineStr"/>
@@ -13525,7 +13749,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>('LCA', 'Polycarbonate-H ecosystems [points/kg]')</t>
+          <t>('LCA', 'Polyacrylamide-H ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C343" t="inlineStr"/>
@@ -13541,7 +13765,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>('LCA', 'Membrane-H ecosystems [points/kg]')</t>
+          <t>('LCA', 'Photovoltaic panel-h ecosystems [points/m2]')</t>
         </is>
       </c>
       <c r="C344" t="inlineStr"/>
@@ -13557,7 +13781,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>('LCA', 'Na cl-h ecosystems [points/kg]')</t>
+          <t>('LCA', 'GACProduction-H ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C345" t="inlineStr"/>
@@ -13573,7 +13797,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>('LCA', 'Na oh-h ecosystems [points/kg]')</t>
+          <t>('LCA', 'GACRegeneration-H ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C346" t="inlineStr"/>
@@ -13589,7 +13813,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>('LCA', 'Zeolite-H ecosystems [points/kg]')</t>
+          <t>('LCA', 'Switches-H ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C347" t="inlineStr"/>
@@ -13605,7 +13829,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>('LCA', 'Battery-H ecosystems [points/kg]')</t>
+          <t>('LCA', 'Control units-h ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C348" t="inlineStr"/>
@@ -13621,7 +13845,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>('LCA', 'Lithium battery-h ecosystems [points/kg]')</t>
+          <t>('LCA', 'Electronics active-h ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C349" t="inlineStr"/>
@@ -13637,7 +13861,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>('LCA', 'Excavation-H health [points/m3]')</t>
+          <t>('LCA', 'Electronics passive-h ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C350" t="inlineStr"/>
@@ -13653,7 +13877,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>('LCA', 'Brick-H health [points/kg]')</t>
+          <t>('LCA', 'Transformers-H ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C351" t="inlineStr"/>
@@ -13669,7 +13893,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>('LCA', 'Cement-H health [points/kg]')</t>
+          <t>('LCA', 'Fertilizer offset-h ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C352" t="inlineStr"/>
@@ -13685,7 +13909,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>('LCA', 'Concrete-H health [points/m3]')</t>
+          <t>('LCA', 'Polycarbonate-H ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C353" t="inlineStr"/>
@@ -13701,7 +13925,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>('LCA', 'Gravel-H health [points/kg]')</t>
+          <t>('LCA', 'Membrane-H ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C354" t="inlineStr"/>
@@ -13717,7 +13941,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>('LCA', 'Plastic-H health [points/kg]')</t>
+          <t>('LCA', 'Na cl-h ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C355" t="inlineStr"/>
@@ -13733,7 +13957,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>('LCA', 'Sand-H health [points/kg]')</t>
+          <t>('LCA', 'Na oh-h ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C356" t="inlineStr"/>
@@ -13749,7 +13973,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>('LCA', 'Stainless steel-h health [points/kg]')</t>
+          <t>('LCA', 'Zeolite-H ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C357" t="inlineStr"/>
@@ -13765,7 +13989,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>('LCA', 'Stainless steel sheet-h health [points/kg]')</t>
+          <t>('LCA', 'Battery-H ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C358" t="inlineStr"/>
@@ -13781,7 +14005,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>('LCA', 'Steel-H health [points/kg]')</t>
+          <t>('LCA', 'Lithium battery-h ecosystems [points/kg]')</t>
         </is>
       </c>
       <c r="C359" t="inlineStr"/>
@@ -13797,7 +14021,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>('LCA', 'Wood-H health [points/m3]')</t>
+          <t>('LCA', 'Excavation-H health [points/m3]')</t>
         </is>
       </c>
       <c r="C360" t="inlineStr"/>
@@ -13813,7 +14037,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>('LCA', 'Trucking-H health [points/tonne*km]')</t>
+          <t>('LCA', 'Brick-H health [points/kg]')</t>
         </is>
       </c>
       <c r="C361" t="inlineStr"/>
@@ -13829,7 +14053,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>('LCA', 'Electric motor-h health [points/ea]')</t>
+          <t>('LCA', 'Cement-H health [points/kg]')</t>
         </is>
       </c>
       <c r="C362" t="inlineStr"/>
@@ -13845,7 +14069,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>('LCA', 'Electronics-H health [points/kg]')</t>
+          <t>('LCA', 'Concrete-H health [points/m3]')</t>
         </is>
       </c>
       <c r="C363" t="inlineStr"/>
@@ -13861,7 +14085,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>('LCA', 'Catalytic converter-h health [points/ea]')</t>
+          <t>('LCA', 'Gravel-H health [points/kg]')</t>
         </is>
       </c>
       <c r="C364" t="inlineStr"/>
@@ -13877,7 +14101,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>('LCA', 'Oil heat exchanger-h health [points/ea]')</t>
+          <t>('LCA', 'Plastic-H health [points/kg]')</t>
         </is>
       </c>
       <c r="C365" t="inlineStr"/>
@@ -13893,7 +14117,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>('LCA', 'Pump-H health [points/ea]')</t>
+          <t>('LCA', 'Sand-H health [points/kg]')</t>
         </is>
       </c>
       <c r="C366" t="inlineStr"/>
@@ -13909,7 +14133,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>('LCA', 'Hydronic heat exchanger-h health [points/ea]')</t>
+          <t>('LCA', 'Stainless steel-h health [points/kg]')</t>
         </is>
       </c>
       <c r="C367" t="inlineStr"/>
@@ -13925,7 +14149,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>('LCA', 'Electric connectors-h health [points/kg]')</t>
+          <t>('LCA', 'Stainless steel sheet-h health [points/kg]')</t>
         </is>
       </c>
       <c r="C368" t="inlineStr"/>
@@ -13941,7 +14165,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>('LCA', 'Electric cables-h health [points/m]')</t>
+          <t>('LCA', 'Steel-H health [points/kg]')</t>
         </is>
       </c>
       <c r="C369" t="inlineStr"/>
@@ -13957,7 +14181,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>('LCA', 'PVC-H health [points/kg]')</t>
+          <t>('LCA', 'Wood-H health [points/m3]')</t>
         </is>
       </c>
       <c r="C370" t="inlineStr"/>
@@ -13973,7 +14197,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>('LCA', 'PE-H health [points/kg]')</t>
+          <t>('LCA', 'Trucking-H health [points/tonne*km]')</t>
         </is>
       </c>
       <c r="C371" t="inlineStr"/>
@@ -13989,7 +14213,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>('LCA', 'Polymer-H health [points/kg]')</t>
+          <t>('LCA', 'Electric motor-h health [points/ea]')</t>
         </is>
       </c>
       <c r="C372" t="inlineStr"/>
@@ -14005,7 +14229,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>('LCA', 'Cationic resin-h health [points/kg]')</t>
+          <t>('LCA', 'Electronics-H health [points/kg]')</t>
         </is>
       </c>
       <c r="C373" t="inlineStr"/>
@@ -14021,7 +14245,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>('LCA', 'Ceramic-H health [points/kg]')</t>
+          <t>('LCA', 'Catalytic converter-h health [points/ea]')</t>
         </is>
       </c>
       <c r="C374" t="inlineStr"/>
@@ -14037,7 +14261,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>('LCA', 'Fan-H health [points/kg]')</t>
+          <t>('LCA', 'Oil heat exchanger-h health [points/ea]')</t>
         </is>
       </c>
       <c r="C375" t="inlineStr"/>
@@ -14053,7 +14277,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>('LCA', 'Aluminum-H health [points/kg]')</t>
+          <t>('LCA', 'Pump-H health [points/ea]')</t>
         </is>
       </c>
       <c r="C376" t="inlineStr"/>
@@ -14069,7 +14293,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>('LCA', 'LPG-H health [points/kg]')</t>
+          <t>('LCA', 'Hydronic heat exchanger-h health [points/ea]')</t>
         </is>
       </c>
       <c r="C377" t="inlineStr"/>
@@ -14085,7 +14309,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>('LCA', 'Zinc coat-h health [points/m2]')</t>
+          <t>('LCA', 'Electric connectors-h health [points/kg]')</t>
         </is>
       </c>
       <c r="C378" t="inlineStr"/>
@@ -14101,7 +14325,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>('LCA', 'Polyacrylamide-H health [points/kg]')</t>
+          <t>('LCA', 'Electric cables-h health [points/m]')</t>
         </is>
       </c>
       <c r="C379" t="inlineStr"/>
@@ -14117,7 +14341,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>('LCA', 'Photovoltaic panel-h health [points/m2]')</t>
+          <t>('LCA', 'PVC-H health [points/kg]')</t>
         </is>
       </c>
       <c r="C380" t="inlineStr"/>
@@ -14133,7 +14357,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>('LCA', 'GACProduction-H health [points/kg]')</t>
+          <t>('LCA', 'PE-H health [points/kg]')</t>
         </is>
       </c>
       <c r="C381" t="inlineStr"/>
@@ -14149,7 +14373,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>('LCA', 'GACRegeneration-H health [points/kg]')</t>
+          <t>('LCA', 'Polymer-H health [points/kg]')</t>
         </is>
       </c>
       <c r="C382" t="inlineStr"/>
@@ -14165,7 +14389,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>('LCA', 'Switches-H health [points/kg]')</t>
+          <t>('LCA', 'Cationic resin-h health [points/kg]')</t>
         </is>
       </c>
       <c r="C383" t="inlineStr"/>
@@ -14181,7 +14405,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>('LCA', 'Control units-h health [points/kg]')</t>
+          <t>('LCA', 'Ceramic-H health [points/kg]')</t>
         </is>
       </c>
       <c r="C384" t="inlineStr"/>
@@ -14197,7 +14421,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>('LCA', 'Electronics active-h health [points/kg]')</t>
+          <t>('LCA', 'Fan-H health [points/kg]')</t>
         </is>
       </c>
       <c r="C385" t="inlineStr"/>
@@ -14213,7 +14437,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>('LCA', 'Electronics passive-h health [points/kg]')</t>
+          <t>('LCA', 'Aluminum-H health [points/kg]')</t>
         </is>
       </c>
       <c r="C386" t="inlineStr"/>
@@ -14229,7 +14453,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>('LCA', 'Transformers-H health [points/kg]')</t>
+          <t>('LCA', 'LPG-H health [points/kg]')</t>
         </is>
       </c>
       <c r="C387" t="inlineStr"/>
@@ -14245,7 +14469,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>('LCA', 'Fertilizer offset-h health [points/kg]')</t>
+          <t>('LCA', 'Zinc coat-h health [points/m2]')</t>
         </is>
       </c>
       <c r="C388" t="inlineStr"/>
@@ -14261,7 +14485,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>('LCA', 'Polycarbonate-H health [points/kg]')</t>
+          <t>('LCA', 'Polyacrylamide-H health [points/kg]')</t>
         </is>
       </c>
       <c r="C389" t="inlineStr"/>
@@ -14277,7 +14501,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>('LCA', 'Membrane-H health [points/kg]')</t>
+          <t>('LCA', 'Photovoltaic panel-h health [points/m2]')</t>
         </is>
       </c>
       <c r="C390" t="inlineStr"/>
@@ -14293,7 +14517,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>('LCA', 'Na cl-h health [points/kg]')</t>
+          <t>('LCA', 'GACProduction-H health [points/kg]')</t>
         </is>
       </c>
       <c r="C391" t="inlineStr"/>
@@ -14309,7 +14533,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>('LCA', 'Na oh-h health [points/kg]')</t>
+          <t>('LCA', 'GACRegeneration-H health [points/kg]')</t>
         </is>
       </c>
       <c r="C392" t="inlineStr"/>
@@ -14325,7 +14549,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>('LCA', 'Zeolite-H health [points/kg]')</t>
+          <t>('LCA', 'Switches-H health [points/kg]')</t>
         </is>
       </c>
       <c r="C393" t="inlineStr"/>
@@ -14341,7 +14565,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>('LCA', 'Battery-H health [points/kg]')</t>
+          <t>('LCA', 'Control units-h health [points/kg]')</t>
         </is>
       </c>
       <c r="C394" t="inlineStr"/>
@@ -14357,7 +14581,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>('LCA', 'Lithium battery-h health [points/kg]')</t>
+          <t>('LCA', 'Electronics active-h health [points/kg]')</t>
         </is>
       </c>
       <c r="C395" t="inlineStr"/>
@@ -14373,7 +14597,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>('LCA', 'Excavation-H resources [points/m3]')</t>
+          <t>('LCA', 'Electronics passive-h health [points/kg]')</t>
         </is>
       </c>
       <c r="C396" t="inlineStr"/>
@@ -14389,7 +14613,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>('LCA', 'Brick-H resources [points/kg]')</t>
+          <t>('LCA', 'Transformers-H health [points/kg]')</t>
         </is>
       </c>
       <c r="C397" t="inlineStr"/>
@@ -14405,7 +14629,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>('LCA', 'Cement-H resources [points/kg]')</t>
+          <t>('LCA', 'Fertilizer offset-h health [points/kg]')</t>
         </is>
       </c>
       <c r="C398" t="inlineStr"/>
@@ -14421,7 +14645,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>('LCA', 'Concrete-H resources [points/m3]')</t>
+          <t>('LCA', 'Polycarbonate-H health [points/kg]')</t>
         </is>
       </c>
       <c r="C399" t="inlineStr"/>
@@ -14437,7 +14661,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>('LCA', 'Gravel-H resources [points/kg]')</t>
+          <t>('LCA', 'Membrane-H health [points/kg]')</t>
         </is>
       </c>
       <c r="C400" t="inlineStr"/>
@@ -14453,7 +14677,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>('LCA', 'Plastic-H resources [points/kg]')</t>
+          <t>('LCA', 'Na cl-h health [points/kg]')</t>
         </is>
       </c>
       <c r="C401" t="inlineStr"/>
@@ -14469,7 +14693,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>('LCA', 'Sand-H resources [points/kg]')</t>
+          <t>('LCA', 'Na oh-h health [points/kg]')</t>
         </is>
       </c>
       <c r="C402" t="inlineStr"/>
@@ -14485,7 +14709,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>('LCA', 'Stainless steel-h resources [points/kg]')</t>
+          <t>('LCA', 'Zeolite-H health [points/kg]')</t>
         </is>
       </c>
       <c r="C403" t="inlineStr"/>
@@ -14501,7 +14725,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>('LCA', 'Stainless steel sheet-h resources [points/kg]')</t>
+          <t>('LCA', 'Battery-H health [points/kg]')</t>
         </is>
       </c>
       <c r="C404" t="inlineStr"/>
@@ -14517,7 +14741,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>('LCA', 'Steel-H resources [points/kg]')</t>
+          <t>('LCA', 'Lithium battery-h health [points/kg]')</t>
         </is>
       </c>
       <c r="C405" t="inlineStr"/>
@@ -14533,7 +14757,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>('LCA', 'Wood-H resources [points/m3]')</t>
+          <t>('LCA', 'Excavation-H resources [points/m3]')</t>
         </is>
       </c>
       <c r="C406" t="inlineStr"/>
@@ -14549,7 +14773,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>('LCA', 'Trucking-H resources [points/tonne*km]')</t>
+          <t>('LCA', 'Brick-H resources [points/kg]')</t>
         </is>
       </c>
       <c r="C407" t="inlineStr"/>
@@ -14565,7 +14789,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>('LCA', 'Electric motor-h resources [points/ea]')</t>
+          <t>('LCA', 'Cement-H resources [points/kg]')</t>
         </is>
       </c>
       <c r="C408" t="inlineStr"/>
@@ -14581,7 +14805,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>('LCA', 'Electronics-H resources [points/kg]')</t>
+          <t>('LCA', 'Concrete-H resources [points/m3]')</t>
         </is>
       </c>
       <c r="C409" t="inlineStr"/>
@@ -14597,7 +14821,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>('LCA', 'Catalytic converter-h resources [points/ea]')</t>
+          <t>('LCA', 'Gravel-H resources [points/kg]')</t>
         </is>
       </c>
       <c r="C410" t="inlineStr"/>
@@ -14613,7 +14837,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>('LCA', 'Oil heat exchanger-h resources [points/ea]')</t>
+          <t>('LCA', 'Plastic-H resources [points/kg]')</t>
         </is>
       </c>
       <c r="C411" t="inlineStr"/>
@@ -14629,7 +14853,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>('LCA', 'Pump-H resources [points/ea]')</t>
+          <t>('LCA', 'Sand-H resources [points/kg]')</t>
         </is>
       </c>
       <c r="C412" t="inlineStr"/>
@@ -14645,7 +14869,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>('LCA', 'Hydronic heat exchanger-h resources [points/ea]')</t>
+          <t>('LCA', 'Stainless steel-h resources [points/kg]')</t>
         </is>
       </c>
       <c r="C413" t="inlineStr"/>
@@ -14661,7 +14885,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>('LCA', 'Electric connectors-h resources [points/kg]')</t>
+          <t>('LCA', 'Stainless steel sheet-h resources [points/kg]')</t>
         </is>
       </c>
       <c r="C414" t="inlineStr"/>
@@ -14677,7 +14901,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>('LCA', 'Electric cables-h resources [points/m]')</t>
+          <t>('LCA', 'Steel-H resources [points/kg]')</t>
         </is>
       </c>
       <c r="C415" t="inlineStr"/>
@@ -14693,7 +14917,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>('LCA', 'PVC-H resources [points/kg]')</t>
+          <t>('LCA', 'Wood-H resources [points/m3]')</t>
         </is>
       </c>
       <c r="C416" t="inlineStr"/>
@@ -14709,7 +14933,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>('LCA', 'PE-H resources [points/kg]')</t>
+          <t>('LCA', 'Trucking-H resources [points/tonne*km]')</t>
         </is>
       </c>
       <c r="C417" t="inlineStr"/>
@@ -14725,7 +14949,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>('LCA', 'Polymer-H resources [points/kg]')</t>
+          <t>('LCA', 'Electric motor-h resources [points/ea]')</t>
         </is>
       </c>
       <c r="C418" t="inlineStr"/>
@@ -14741,7 +14965,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>('LCA', 'Cationic resin-h resources [points/kg]')</t>
+          <t>('LCA', 'Electronics-H resources [points/kg]')</t>
         </is>
       </c>
       <c r="C419" t="inlineStr"/>
@@ -14757,7 +14981,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>('LCA', 'Ceramic-H resources [points/kg]')</t>
+          <t>('LCA', 'Catalytic converter-h resources [points/ea]')</t>
         </is>
       </c>
       <c r="C420" t="inlineStr"/>
@@ -14773,7 +14997,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>('LCA', 'Fan-H resources [points/kg]')</t>
+          <t>('LCA', 'Oil heat exchanger-h resources [points/ea]')</t>
         </is>
       </c>
       <c r="C421" t="inlineStr"/>
@@ -14789,7 +15013,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>('LCA', 'Aluminum-H resources [points/kg]')</t>
+          <t>('LCA', 'Pump-H resources [points/ea]')</t>
         </is>
       </c>
       <c r="C422" t="inlineStr"/>
@@ -14805,7 +15029,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>('LCA', 'LPG-H resources [points/kg]')</t>
+          <t>('LCA', 'Hydronic heat exchanger-h resources [points/ea]')</t>
         </is>
       </c>
       <c r="C423" t="inlineStr"/>
@@ -14821,7 +15045,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>('LCA', 'Zinc coat-h resources [points/m2]')</t>
+          <t>('LCA', 'Electric connectors-h resources [points/kg]')</t>
         </is>
       </c>
       <c r="C424" t="inlineStr"/>
@@ -14837,7 +15061,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>('LCA', 'Polyacrylamide-H resources [points/kg]')</t>
+          <t>('LCA', 'Electric cables-h resources [points/m]')</t>
         </is>
       </c>
       <c r="C425" t="inlineStr"/>
@@ -14853,7 +15077,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>('LCA', 'Photovoltaic panel-h resources [points/m2]')</t>
+          <t>('LCA', 'PVC-H resources [points/kg]')</t>
         </is>
       </c>
       <c r="C426" t="inlineStr"/>
@@ -14869,7 +15093,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>('LCA', 'GACProduction-H resources [points/kg]')</t>
+          <t>('LCA', 'PE-H resources [points/kg]')</t>
         </is>
       </c>
       <c r="C427" t="inlineStr"/>
@@ -14885,7 +15109,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>('LCA', 'GACRegeneration-H resources [points/kg]')</t>
+          <t>('LCA', 'Polymer-H resources [points/kg]')</t>
         </is>
       </c>
       <c r="C428" t="inlineStr"/>
@@ -14901,7 +15125,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>('LCA', 'Switches-H resources [points/kg]')</t>
+          <t>('LCA', 'Cationic resin-h resources [points/kg]')</t>
         </is>
       </c>
       <c r="C429" t="inlineStr"/>
@@ -14917,7 +15141,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>('LCA', 'Control units-h resources [points/kg]')</t>
+          <t>('LCA', 'Ceramic-H resources [points/kg]')</t>
         </is>
       </c>
       <c r="C430" t="inlineStr"/>
@@ -14933,7 +15157,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>('LCA', 'Electronics active-h resources [points/kg]')</t>
+          <t>('LCA', 'Fan-H resources [points/kg]')</t>
         </is>
       </c>
       <c r="C431" t="inlineStr"/>
@@ -14949,7 +15173,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>('LCA', 'Electronics passive-h resources [points/kg]')</t>
+          <t>('LCA', 'Aluminum-H resources [points/kg]')</t>
         </is>
       </c>
       <c r="C432" t="inlineStr"/>
@@ -14965,7 +15189,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>('LCA', 'Transformers-H resources [points/kg]')</t>
+          <t>('LCA', 'LPG-H resources [points/kg]')</t>
         </is>
       </c>
       <c r="C433" t="inlineStr"/>
@@ -14981,7 +15205,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>('LCA', 'Fertilizer offset-h resources [points/kg]')</t>
+          <t>('LCA', 'Zinc coat-h resources [points/m2]')</t>
         </is>
       </c>
       <c r="C434" t="inlineStr"/>
@@ -14997,7 +15221,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>('LCA', 'Polycarbonate-H resources [points/kg]')</t>
+          <t>('LCA', 'Polyacrylamide-H resources [points/kg]')</t>
         </is>
       </c>
       <c r="C435" t="inlineStr"/>
@@ -15013,7 +15237,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>('LCA', 'Membrane-H resources [points/kg]')</t>
+          <t>('LCA', 'Photovoltaic panel-h resources [points/m2]')</t>
         </is>
       </c>
       <c r="C436" t="inlineStr"/>
@@ -15029,7 +15253,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>('LCA', 'Na cl-h resources [points/kg]')</t>
+          <t>('LCA', 'GACProduction-H resources [points/kg]')</t>
         </is>
       </c>
       <c r="C437" t="inlineStr"/>
@@ -15045,7 +15269,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>('LCA', 'Na oh-h resources [points/kg]')</t>
+          <t>('LCA', 'GACRegeneration-H resources [points/kg]')</t>
         </is>
       </c>
       <c r="C438" t="inlineStr"/>
@@ -15061,7 +15285,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>('LCA', 'Zeolite-H resources [points/kg]')</t>
+          <t>('LCA', 'Switches-H resources [points/kg]')</t>
         </is>
       </c>
       <c r="C439" t="inlineStr"/>
@@ -15077,7 +15301,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>('LCA', 'Battery-H resources [points/kg]')</t>
+          <t>('LCA', 'Control units-h resources [points/kg]')</t>
         </is>
       </c>
       <c r="C440" t="inlineStr"/>
@@ -15093,7 +15317,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>('LCA', 'Lithium battery-h resources [points/kg]')</t>
+          <t>('LCA', 'Electronics active-h resources [points/kg]')</t>
         </is>
       </c>
       <c r="C441" t="inlineStr"/>
@@ -15109,7 +15333,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>('LCA', 'Electricity CF [kg CO2-eq/kWh]')</t>
+          <t>('LCA', 'Electronics passive-h resources [points/kg]')</t>
         </is>
       </c>
       <c r="C442" t="inlineStr"/>
@@ -15125,7 +15349,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>('LCA', 'Electricity ecosystems CF [points/kWh]')</t>
+          <t>('LCA', 'Transformers-H resources [points/kg]')</t>
         </is>
       </c>
       <c r="C443" t="inlineStr"/>
@@ -15141,7 +15365,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>('LCA', 'Electricity health CF [points/kWh]')</t>
+          <t>('LCA', 'Fertilizer offset-h resources [points/kg]')</t>
         </is>
       </c>
       <c r="C444" t="inlineStr"/>
@@ -15157,7 +15381,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>('LCA', 'Electricity resources CF [points/kWh]')</t>
+          <t>('LCA', 'Polycarbonate-H resources [points/kg]')</t>
         </is>
       </c>
       <c r="C445" t="inlineStr"/>
@@ -15173,7 +15397,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>('TEA', 'Zeolite price [USD/kg]')</t>
+          <t>('LCA', 'Membrane-H resources [points/kg]')</t>
         </is>
       </c>
       <c r="C446" t="inlineStr"/>
@@ -15189,7 +15413,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>('TEA', 'GAC price [USD/kg]')</t>
+          <t>('LCA', 'Na cl-h resources [points/kg]')</t>
         </is>
       </c>
       <c r="C447" t="inlineStr"/>
@@ -15205,7 +15429,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>('TEA', 'Na OH price [USD/kg]')</t>
+          <t>('LCA', 'Na oh-h resources [points/kg]')</t>
         </is>
       </c>
       <c r="C448" t="inlineStr"/>
@@ -15221,7 +15445,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>('TEA', 'Na cl price [USD/kg]')</t>
+          <t>('LCA', 'Zeolite-H resources [points/kg]')</t>
         </is>
       </c>
       <c r="C449" t="inlineStr"/>
@@ -15237,7 +15461,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>('TEA', 'Na cl1 price [USD/kg]')</t>
+          <t>('LCA', 'Battery-H resources [points/kg]')</t>
         </is>
       </c>
       <c r="C450" t="inlineStr"/>
@@ -15253,7 +15477,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>('TEA', 'LPG price [USD/kg]')</t>
+          <t>('LCA', 'Lithium battery-h resources [points/kg]')</t>
         </is>
       </c>
       <c r="C451" t="inlineStr"/>
@@ -15269,7 +15493,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>('TEA', 'Conc nh3 price [USD/kg NH3]')</t>
+          <t>('LCA', 'Electricity CF [kg CO2-eq/kWh]')</t>
         </is>
       </c>
       <c r="C452" t="inlineStr"/>
@@ -15279,6 +15503,230 @@
       <c r="G452" t="inlineStr"/>
       <c r="H452" t="inlineStr"/>
     </row>
+    <row r="453">
+      <c r="A453" s="1" t="n">
+        <v>451</v>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>('LCA', 'Electricity ecosystems CF [points/kWh]')</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr"/>
+      <c r="D453" t="inlineStr"/>
+      <c r="E453" t="inlineStr"/>
+      <c r="F453" t="inlineStr"/>
+      <c r="G453" t="inlineStr"/>
+      <c r="H453" t="inlineStr"/>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="n">
+        <v>452</v>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>('LCA', 'Electricity health CF [points/kWh]')</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr"/>
+      <c r="D454" t="inlineStr"/>
+      <c r="E454" t="inlineStr"/>
+      <c r="F454" t="inlineStr"/>
+      <c r="G454" t="inlineStr"/>
+      <c r="H454" t="inlineStr"/>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="n">
+        <v>453</v>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>('LCA', 'Electricity resources CF [points/kWh]')</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr"/>
+      <c r="D455" t="inlineStr"/>
+      <c r="E455" t="inlineStr"/>
+      <c r="F455" t="inlineStr"/>
+      <c r="G455" t="inlineStr"/>
+      <c r="H455" t="inlineStr"/>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="n">
+        <v>454</v>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>('TEA', 'Price factor [-]')</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr"/>
+      <c r="D456" t="inlineStr"/>
+      <c r="E456" t="inlineStr"/>
+      <c r="F456" t="inlineStr"/>
+      <c r="G456" t="inlineStr"/>
+      <c r="H456" t="inlineStr"/>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="n">
+        <v>455</v>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>('TEA', 'Zeolite price [USD/kg]')</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr"/>
+      <c r="D457" t="inlineStr"/>
+      <c r="E457" t="inlineStr"/>
+      <c r="F457" t="inlineStr"/>
+      <c r="G457" t="inlineStr"/>
+      <c r="H457" t="inlineStr"/>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="n">
+        <v>456</v>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>('TEA', 'GAC price [USD/kg]')</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr"/>
+      <c r="D458" t="inlineStr"/>
+      <c r="E458" t="inlineStr"/>
+      <c r="F458" t="inlineStr"/>
+      <c r="G458" t="inlineStr"/>
+      <c r="H458" t="inlineStr"/>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="n">
+        <v>457</v>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>('TEA', 'Na OH price [USD/kg]')</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr"/>
+      <c r="D459" t="inlineStr"/>
+      <c r="E459" t="inlineStr"/>
+      <c r="F459" t="inlineStr"/>
+      <c r="G459" t="inlineStr"/>
+      <c r="H459" t="inlineStr"/>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="n">
+        <v>458</v>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>('TEA', 'Na cl price [USD/kg]')</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr"/>
+      <c r="D460" t="inlineStr"/>
+      <c r="E460" t="inlineStr"/>
+      <c r="F460" t="inlineStr"/>
+      <c r="G460" t="inlineStr"/>
+      <c r="H460" t="inlineStr"/>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="n">
+        <v>459</v>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>('TEA', 'Na cl1 price [USD/kg]')</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr"/>
+      <c r="D461" t="inlineStr"/>
+      <c r="E461" t="inlineStr"/>
+      <c r="F461" t="inlineStr"/>
+      <c r="G461" t="inlineStr"/>
+      <c r="H461" t="inlineStr"/>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="n">
+        <v>460</v>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>('TEA', 'LPG price [USD/kg]')</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr"/>
+      <c r="D462" t="inlineStr"/>
+      <c r="E462" t="inlineStr"/>
+      <c r="F462" t="inlineStr"/>
+      <c r="G462" t="inlineStr"/>
+      <c r="H462" t="inlineStr"/>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="n">
+        <v>461</v>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>('TEA', 'N fertilizer price [USD/kg N]')</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr"/>
+      <c r="D463" t="inlineStr"/>
+      <c r="E463" t="inlineStr"/>
+      <c r="F463" t="inlineStr"/>
+      <c r="G463" t="inlineStr"/>
+      <c r="H463" t="inlineStr"/>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="n">
+        <v>462</v>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>('TEA', 'P fertilizer price [USD/kg P]')</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr"/>
+      <c r="D464" t="inlineStr"/>
+      <c r="E464" t="inlineStr"/>
+      <c r="F464" t="inlineStr"/>
+      <c r="G464" t="inlineStr"/>
+      <c r="H464" t="inlineStr"/>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="n">
+        <v>463</v>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>('TEA', 'K fertilizer price [USD/kg K]')</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr"/>
+      <c r="D465" t="inlineStr"/>
+      <c r="E465" t="inlineStr"/>
+      <c r="F465" t="inlineStr"/>
+      <c r="G465" t="inlineStr"/>
+      <c r="H465" t="inlineStr"/>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="n">
+        <v>464</v>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>('TEA', 'NH3 fertilizer price [USD/kg N]')</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr"/>
+      <c r="D466" t="inlineStr"/>
+      <c r="E466" t="inlineStr"/>
+      <c r="F466" t="inlineStr"/>
+      <c r="G466" t="inlineStr"/>
+      <c r="H466" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dmsan/newgen/scores/China/parameters.xlsx
+++ b/dmsan/newgen/scores/China/parameters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="NEWgenerator A" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NEWgenerator B" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NEWgenerator A" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NEWgenerator B" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
